--- a/Second part/covidsim.xlsx
+++ b/Second part/covidsim.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>S</t>
   </si>
@@ -29,12 +29,6 @@
   </si>
   <si>
     <t>D</t>
-  </si>
-  <si>
-    <t>inf</t>
-  </si>
-  <si>
-    <t>-inf</t>
   </si>
 </sst>
 </file>
@@ -423,10 +417,10 @@
         <v>7653844</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -443,13 +437,13 @@
         <v>7653844</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -460,16 +454,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7653845</v>
+        <v>7653843</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="E4">
-        <v>-15</v>
+        <v>20</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -480,19 +474,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7653842</v>
+        <v>7653836</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>229</v>
       </c>
       <c r="D5">
-        <v>-69</v>
+        <v>512</v>
       </c>
       <c r="E5">
-        <v>65</v>
+        <v>299</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -500,19 +494,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7653854</v>
+        <v>7653772</v>
       </c>
       <c r="C6">
-        <v>-40</v>
+        <v>1438</v>
       </c>
       <c r="D6">
-        <v>312</v>
+        <v>4500</v>
       </c>
       <c r="E6">
-        <v>-279</v>
+        <v>3153</v>
       </c>
       <c r="F6">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -520,19 +514,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7653801</v>
+        <v>7653205</v>
       </c>
       <c r="C7">
-        <v>217</v>
+        <v>9195</v>
       </c>
       <c r="D7">
-        <v>-1452</v>
+        <v>37252</v>
       </c>
       <c r="E7">
-        <v>1278</v>
+        <v>28761</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -540,19 +534,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7654048</v>
+        <v>7648515</v>
       </c>
       <c r="C8">
-        <v>-1137</v>
+        <v>59860</v>
       </c>
       <c r="D8">
-        <v>6915</v>
+        <v>297544</v>
       </c>
       <c r="E8">
-        <v>-5967</v>
+        <v>243409</v>
       </c>
       <c r="F8">
-        <v>-13</v>
+        <v>491</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -560,19 +554,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7652872</v>
+        <v>7611080</v>
       </c>
       <c r="C9">
-        <v>5837</v>
+        <v>396595</v>
       </c>
       <c r="D9">
-        <v>-33459</v>
+        <v>2322248</v>
       </c>
       <c r="E9">
-        <v>28539</v>
+        <v>1971563</v>
       </c>
       <c r="F9">
-        <v>56</v>
+        <v>3957</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -580,19 +574,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7658559</v>
+        <v>7320343</v>
       </c>
       <c r="C10">
-        <v>-29619</v>
+        <v>2670307</v>
       </c>
       <c r="D10">
-        <v>163605</v>
+        <v>17842116</v>
       </c>
       <c r="E10">
-        <v>-138421</v>
+        <v>15531144</v>
       </c>
       <c r="F10">
-        <v>-279</v>
+        <v>31136</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -600,19 +594,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7630729</v>
+        <v>5171900</v>
       </c>
       <c r="C11">
-        <v>149268</v>
+        <v>18170285</v>
       </c>
       <c r="D11">
-        <v>-805477</v>
+        <v>135576040</v>
       </c>
       <c r="E11">
-        <v>677968</v>
+        <v>120094447</v>
       </c>
       <c r="F11">
-        <v>1357</v>
+        <v>240693</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -620,19 +614,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7767247</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>-748516</v>
+        <v>120555688</v>
       </c>
       <c r="D12">
-        <v>3983175</v>
+        <v>1021713420</v>
       </c>
       <c r="E12">
-        <v>-3341362</v>
+        <v>916713334</v>
       </c>
       <c r="F12">
-        <v>-6698</v>
+        <v>1837146</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -640,19 +634,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7080075</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>3756088</v>
+        <v>723334128</v>
       </c>
       <c r="D13">
-        <v>-19750132</v>
+        <v>7634216692</v>
       </c>
       <c r="E13">
-        <v>16534681</v>
+        <v>6931776634</v>
       </c>
       <c r="F13">
-        <v>33134</v>
+        <v>13891426</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -660,19 +654,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10185901</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>-18505787</v>
+        <v>4340004768</v>
       </c>
       <c r="D14">
-        <v>98156577</v>
+        <v>56332853356</v>
       </c>
       <c r="E14">
-        <v>-82018478</v>
+        <v>51958294561</v>
       </c>
       <c r="F14">
-        <v>-164367</v>
+        <v>104125019</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -680,19 +674,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-12021008</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>98080636</v>
+        <v>26040028608</v>
       </c>
       <c r="D15">
-        <v>-487005822</v>
+        <v>411689992564</v>
       </c>
       <c r="E15">
-        <v>407782841</v>
+        <v>385017527368</v>
       </c>
       <c r="F15">
-        <v>817199</v>
+        <v>771578572</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -700,19 +694,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-142051228</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>-272100387</v>
+        <v>156240171648</v>
       </c>
       <c r="D16">
-        <v>2448234532</v>
+        <v>2985990062380</v>
       </c>
       <c r="E16">
-        <v>-2022376211</v>
+        <v>2824368117630</v>
       </c>
       <c r="F16">
-        <v>-4052859</v>
+        <v>5660057070</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -720,19 +714,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7582393504</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>-6608833145</v>
+        <v>937441029888</v>
       </c>
       <c r="D17">
-        <v>-11180650102</v>
+        <v>21526891123252</v>
       </c>
       <c r="E17">
-        <v>10194314104</v>
+        <v>20548826646536</v>
       </c>
       <c r="F17">
-        <v>20429486</v>
+        <v>41180014764</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -740,19 +734,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1890549069686</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>-1855870460288</v>
+        <v>5624646179328</v>
       </c>
       <c r="D18">
-        <v>11017551369</v>
+        <v>154438001982316</v>
       </c>
       <c r="E18">
-        <v>-45597129905</v>
+        <v>148516839998099</v>
       </c>
       <c r="F18">
-        <v>-91377015</v>
+        <v>297628940761</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -760,19 +754,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-460748510572848</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>470248128529715</v>
+        <v>33747877075968</v>
       </c>
       <c r="D19">
-        <v>-9509009552945</v>
+        <v>1103564598593524</v>
       </c>
       <c r="E19">
-        <v>9380451426</v>
+        <v>1067679309887955</v>
       </c>
       <c r="F19">
-        <v>18798499</v>
+        <v>2139637901345</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -780,19 +774,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-9.731292762655773E+19</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>9.731053886072018E+19</v>
+        <v>202487262455808</v>
       </c>
       <c r="D20">
-        <v>2436301493713327</v>
+        <v>7859943698458540</v>
       </c>
       <c r="E20">
-        <v>-47440577217770</v>
+        <v>7642145966757595</v>
       </c>
       <c r="F20">
-        <v>-95071297030</v>
+        <v>15314921788625</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -800,19 +794,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.265878328342924E+27</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>-5.265878824629061E+27</v>
+        <v>1214923574734848</v>
       </c>
       <c r="D21">
-        <v>4.96274002983698E+20</v>
+        <v>5.582955493903302E+16</v>
       </c>
       <c r="E21">
-        <v>1.210970387641173E+16</v>
+        <v>5.45054109888233E+16</v>
       </c>
       <c r="F21">
-        <v>24267943640103</v>
+        <v>109229280561835</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -820,19 +814,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-5.804457079146152E+40</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>5.804457079148838E+40</v>
+        <v>7289541448409088</v>
       </c>
       <c r="D22">
-        <v>-2.685598399070422E+28</v>
+        <v>3.956665788721706E+17</v>
       </c>
       <c r="E22">
-        <v>2.47641938459253E+21</v>
+        <v>3.876003011234214E+17</v>
       </c>
       <c r="F22">
-        <v>4.96276429778062E+18</v>
+        <v>776754110514000</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -840,19 +834,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-3.462357689068358E+61</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>3.462357689068358E+61</v>
+        <v>4.373724869045453E+16</v>
       </c>
       <c r="D23">
-        <v>2.960273110366982E+41</v>
+        <v>2.79882421789883E+18</v>
       </c>
       <c r="E23">
-        <v>-1.340113576371947E+29</v>
+        <v>2.749576830818974E+18</v>
       </c>
       <c r="F23">
-        <v>-2.685598349442779E+26</v>
+        <v>5510174009749706</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -860,19 +854,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.27652786556514E+95</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>-2.27652786556514E+95</v>
+        <v>2.624234921427272E+17</v>
       </c>
       <c r="D24">
-        <v>1.765802421424863E+62</v>
+        <v>1.976671852005363E+19</v>
       </c>
       <c r="E24">
-        <v>1.47717628207299E+42</v>
+        <v>1.946528650895311E+19</v>
       </c>
       <c r="F24">
-        <v>2.960273110366713E+39</v>
+        <v>3.900859019848771E+16</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -880,19 +874,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-8.928619941578863E+149</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>8.928619941578863E+149</v>
+        <v>1.574540952856363E+18</v>
       </c>
       <c r="D25">
-        <v>-1.161029211438222E+96</v>
+        <v>1.394167236089463E+20</v>
       </c>
       <c r="E25">
-        <v>8.811354082910065E+62</v>
+        <v>1.375664984329738E+20</v>
       </c>
       <c r="F25">
-        <v>1.765802421424863E+60</v>
+        <v>2.756843655975117E+17</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -900,179 +894,539 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-2.302484642556115E+238</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>2.302484642556115E+238</v>
+        <v>9.447245717138178E+18</v>
       </c>
       <c r="D26">
-        <v>4.55359617020522E+150</v>
+        <v>9.822152290740497E+20</v>
       </c>
       <c r="E26">
-        <v>-5.793535765076725E+96</v>
+        <v>9.708224476745897E+20</v>
       </c>
       <c r="F26">
-        <v>-1.161029211438222E+94</v>
+        <v>1.945535967284486E+18</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" t="s">
-        <v>6</v>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>5.668347430282907E+19</v>
       </c>
       <c r="D27">
-        <v>1.174267167703619E+239</v>
+        <v>6.913295586386902E+21</v>
       </c>
       <c r="E27">
-        <v>2.272244488932405E+151</v>
+        <v>6.842898888428688E+21</v>
       </c>
       <c r="F27">
-        <v>4.55359617020522E+148</v>
+        <v>1.371322422530947E+19</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="D28" t="s">
-        <v>6</v>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>3.401008458169744E+20</v>
+      </c>
+      <c r="D28">
+        <v>4.861980300191962E+22</v>
       </c>
       <c r="E28">
-        <v>5.859593166841058E+239</v>
+        <v>4.818314275292802E+22</v>
       </c>
       <c r="F28">
-        <v>1.174267167703619E+237</v>
+        <v>9.655940431448796E+19</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="E29" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29" t="s">
-        <v>6</v>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>2.040605074901846E+21</v>
+      </c>
+      <c r="D29">
+        <v>3.416990243967053E+23</v>
+      </c>
+      <c r="E29">
+        <v>3.38979102485435E+23</v>
+      </c>
+      <c r="F29">
+        <v>6.793168386481722E+20</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>28</v>
       </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>1.224363044941108E+22</v>
+      </c>
+      <c r="D30">
+        <v>2.400055591076544E+24</v>
+      </c>
+      <c r="E30">
+        <v>2.383036336710429E+24</v>
+      </c>
+      <c r="F30">
+        <v>4.775623921263398E+21</v>
+      </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>29</v>
       </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>7.346178269646649E+22</v>
+      </c>
+      <c r="D31">
+        <v>1.684936365933346E+25</v>
+      </c>
+      <c r="E31">
+        <v>1.674235007289282E+25</v>
+      </c>
+      <c r="F31">
+        <v>3.355180375329224E+22</v>
+      </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>4.40770696178799E+23</v>
+      </c>
+      <c r="D32">
+        <v>1.182393927461201E+26</v>
+      </c>
+      <c r="E32">
+        <v>1.175630248058596E+26</v>
+      </c>
+      <c r="F32">
+        <v>2.355972440999191E+23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>2.644624177072794E+24</v>
+      </c>
+      <c r="D33">
+        <v>8.294388320075556E+26</v>
+      </c>
+      <c r="E33">
+        <v>8.251406194148582E+26</v>
+      </c>
+      <c r="F33">
+        <v>1.653588415661039E+24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>1.586774506243676E+25</v>
+      </c>
+      <c r="D34">
+        <v>5.816650320761181E+27</v>
+      </c>
+      <c r="E34">
+        <v>5.78918101054742E+27</v>
+      </c>
+      <c r="F34">
+        <v>1.160156515139763E+25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>9.520647037462058E+25</v>
+      </c>
+      <c r="D35">
+        <v>4.078002322557801E+28</v>
+      </c>
+      <c r="E35">
+        <v>4.060344712169314E+28</v>
+      </c>
+      <c r="F35">
+        <v>8.136963351040708E+25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>5.712388222477235E+26</v>
+      </c>
+      <c r="D36">
+        <v>2.858409884605445E+29</v>
+      </c>
+      <c r="E36">
+        <v>2.846992101390205E+29</v>
+      </c>
+      <c r="F36">
+        <v>5.705394992765942E+26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>3.427432933486341E+27</v>
+      </c>
+      <c r="D37">
+        <v>2.003171874512803E+30</v>
+      </c>
+      <c r="E37">
+        <v>1.995744952696158E+30</v>
+      </c>
+      <c r="F37">
+        <v>3.999488883158634E+27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>2.056459760091805E+28</v>
+      </c>
+      <c r="D38">
+        <v>1.403591285332357E+31</v>
+      </c>
+      <c r="E38">
+        <v>1.39873175592112E+31</v>
+      </c>
+      <c r="F38">
+        <v>2.80306965114453E+28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>1.233875856055083E+29</v>
+      </c>
+      <c r="D39">
+        <v>9.833364836366863E+31</v>
+      </c>
+      <c r="E39">
+        <v>9.801384025650699E+31</v>
+      </c>
+      <c r="F39">
+        <v>1.964205215561263E+29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>7.403255136330497E+29</v>
+      </c>
+      <c r="D40">
+        <v>6.888290888881024E+32</v>
+      </c>
+      <c r="E40">
+        <v>6.867125858477204E+32</v>
+      </c>
+      <c r="F40">
+        <v>1.376177526748939E+30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>4.441953081798298E+30</v>
+      </c>
+      <c r="D41">
+        <v>4.824764924271249E+33</v>
+      </c>
+      <c r="E41">
+        <v>4.810682325247072E+33</v>
+      </c>
+      <c r="F41">
+        <v>9.640645942378902E+30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>2.665171849078979E+31</v>
+      </c>
+      <c r="D42">
+        <v>3.379112228222594E+34</v>
+      </c>
+      <c r="E42">
+        <v>3.369694162260768E+34</v>
+      </c>
+      <c r="F42">
+        <v>6.75289411274703E+31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>1.599103109447387E+32</v>
+      </c>
+      <c r="D43">
+        <v>2.366444628495448E+35</v>
+      </c>
+      <c r="E43">
+        <v>2.360115834335228E+35</v>
+      </c>
+      <c r="F43">
+        <v>4.729691050772001E+32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>9.594618656684323E+32</v>
+      </c>
+      <c r="D44">
+        <v>1.657150881190593E+36</v>
+      </c>
+      <c r="E44">
+        <v>1.652879036486274E+36</v>
+      </c>
+      <c r="F44">
+        <v>3.312382838649848E+33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>5.756771194010594E+33</v>
+      </c>
+      <c r="D45">
+        <v>1.160389401579682E+37</v>
+      </c>
+      <c r="E45">
+        <v>1.157494097011361E+37</v>
+      </c>
+      <c r="F45">
+        <v>2.319627448920562E+34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>3.454062716406357E+34</v>
+      </c>
+      <c r="D46">
+        <v>8.125028519535379E+37</v>
+      </c>
+      <c r="E46">
+        <v>8.105331307905336E+37</v>
+      </c>
+      <c r="F46">
+        <v>1.624314891363795E+35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>2.072437629843814E+35</v>
+      </c>
+      <c r="D47">
+        <v>5.688901588761328E+38</v>
+      </c>
+      <c r="E47">
+        <v>5.675455492829222E+38</v>
+      </c>
+      <c r="F47">
+        <v>1.137365830226297E+36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>1.243462577906289E+36</v>
+      </c>
+      <c r="D48">
+        <v>3.983060087184868E+39</v>
+      </c>
+      <c r="E48">
+        <v>3.973852991357747E+39</v>
+      </c>
+      <c r="F48">
+        <v>7.963633249213922E+36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>7.460775467437732E+36</v>
+      </c>
+      <c r="D49">
+        <v>2.78863944606057E+40</v>
+      </c>
+      <c r="E49">
+        <v>2.782317581776799E+40</v>
+      </c>
+      <c r="F49">
+        <v>5.575786737027652E+37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>4.476465280462638E+37</v>
+      </c>
+      <c r="D50">
+        <v>1.952346043261097E+41</v>
+      </c>
+      <c r="E50">
+        <v>1.947994599939584E+41</v>
+      </c>
+      <c r="F50">
+        <v>3.903796793466101E+38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>2.685879168277583E+38</v>
+      </c>
+      <c r="D51">
+        <v>1.366821288893986E+42</v>
+      </c>
+      <c r="E51">
+        <v>1.363819595575204E+42</v>
+      </c>
+      <c r="F51">
+        <v>2.733105401954317E+39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1">
         <v>50</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>1.61152750096655E+39</v>
+      </c>
+      <c r="D52">
+        <v>9.568823373925213E+42</v>
+      </c>
+      <c r="E52">
+        <v>9.5480774227314E+42</v>
+      </c>
+      <c r="F52">
+        <v>1.91344236928485E+40</v>
       </c>
     </row>
   </sheetData>

--- a/Second part/covidsim.xlsx
+++ b/Second part/covidsim.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -443,19 +443,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7653835.700005421</v>
+        <v>7653839.700000562</v>
       </c>
       <c r="C3">
-        <v>4.299997190955819</v>
+        <v>4.29999943819087</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.8711340206</v>
       </c>
       <c r="E3">
-        <v>4.989997392161774</v>
+        <v>0.11597938146</v>
       </c>
       <c r="F3">
-        <v>0.00999999477387129</v>
+        <v>0.01288659794</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -466,19 +466,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7653818.070078969</v>
+        <v>7653822.070044462</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>21.92993516011273</v>
+        <v>22.68883045893594</v>
       </c>
       <c r="E4">
-        <v>4.989985898148776</v>
+        <v>0.2170125726757499</v>
       </c>
       <c r="F4">
-        <v>0.009999971739777106</v>
+        <v>0.02411250807508332</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -489,19 +489,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7653636.054343629</v>
+        <v>7653724.508365771</v>
       </c>
       <c r="C5">
-        <v>94.29730867064899</v>
+        <v>97.56167869004842</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>19.7650121004046</v>
       </c>
       <c r="E5">
-        <v>114.4190510049717</v>
+        <v>2.848449095353948</v>
       </c>
       <c r="F5">
-        <v>0.2292966954007449</v>
+        <v>0.3164943439282164</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -512,19 +512,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7653249.465460339</v>
+        <v>7653324.526904617</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>480.891982905164</v>
+        <v>514.7613493834699</v>
       </c>
       <c r="E6">
-        <v>114.4132716430003</v>
+        <v>5.140571399204616</v>
       </c>
       <c r="F6">
-        <v>0.2292851135130267</v>
+        <v>0.5711745999116241</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -535,19 +535,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7649259.375358843</v>
+        <v>7651111.203621853</v>
       </c>
       <c r="C7">
-        <v>2067.155112822595</v>
+        <v>2213.323282765436</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>448.4261239379035</v>
       </c>
       <c r="E7">
-        <v>2513.432589277191</v>
+        <v>64.84227430021443</v>
       </c>
       <c r="F7">
-        <v>5.036939056667718</v>
+        <v>7.20469714446827</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -558,19 +558,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7640798.486198839</v>
+        <v>7642047.594458642</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>10530.82996624961</v>
+        <v>11667.69282266821</v>
       </c>
       <c r="E8">
-        <v>2510.652467241126</v>
+        <v>116.7414468210009</v>
       </c>
       <c r="F8">
-        <v>5.031367669821895</v>
+        <v>12.9712718690001</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -581,19 +581,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7554019.181183799</v>
+        <v>7591953.847507413</v>
       </c>
       <c r="C9">
-        <v>44957.95320056361</v>
+        <v>50093.74695122802</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>10164.12415973672</v>
       </c>
       <c r="E9">
-        <v>54758.12988440706</v>
+        <v>1469.953243459341</v>
       </c>
       <c r="F9">
-        <v>109.7357312312767</v>
+        <v>163.328138162149</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -604,19 +604,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7376373.911426052</v>
+        <v>7392110.411273232</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>223893.5316740464</v>
+        <v>258852.511167788</v>
       </c>
       <c r="E10">
-        <v>53470.40178610207</v>
+        <v>2593.869803082413</v>
       </c>
       <c r="F10">
-        <v>107.1551137998037</v>
+        <v>288.2077558980459</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -627,19 +627,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5773032.705845199</v>
+        <v>6317107.550098646</v>
       </c>
       <c r="C11">
-        <v>830646.648674418</v>
+        <v>1075002.861174585</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>225495.2287960016</v>
       </c>
       <c r="E11">
-        <v>1048065.314189423</v>
+        <v>32615.42393769021</v>
       </c>
       <c r="F11">
-        <v>2100.331290960767</v>
+        <v>3623.93599307669</v>
       </c>
       <c r="G11">
         <v>9</v>
@@ -650,19 +650,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3995290.244097179</v>
+        <v>3749634.807695789</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2931776.167964868</v>
+        <v>3859828.898834916</v>
       </c>
       <c r="E12">
-        <v>725325.0307620771</v>
+        <v>39943.16412236616</v>
       </c>
       <c r="F12">
-        <v>1453.557175875906</v>
+        <v>4438.129346929572</v>
       </c>
       <c r="G12">
         <v>10</v>
@@ -676,16 +676,16 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>2292929.806260289</v>
+        <v>5170952.482318482</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>2138344.908529429</v>
       </c>
       <c r="E13">
-        <v>5350193.363352233</v>
+        <v>310092.8482368791</v>
       </c>
       <c r="F13">
-        <v>10721.83038747943</v>
+        <v>34454.76091520879</v>
       </c>
       <c r="G13">
         <v>11</v>
@@ -702,13 +702,13 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5247984.109098242</v>
+        <v>7489358.847360807</v>
       </c>
       <c r="E14">
-        <v>2401049.169119955</v>
+        <v>148037.5373752725</v>
       </c>
       <c r="F14">
-        <v>4811.721781803517</v>
+        <v>16448.61526391917</v>
       </c>
       <c r="G14">
         <v>12</v>
@@ -725,13 +725,13 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>6524235.284417603</v>
       </c>
       <c r="E15">
-        <v>7638537.31</v>
+        <v>1016648.744024158</v>
       </c>
       <c r="F15">
-        <v>15307.69</v>
+        <v>112960.9715582397</v>
       </c>
       <c r="G15">
         <v>13</v>
@@ -748,13 +748,13 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>5683483.31465509</v>
       </c>
       <c r="E16">
-        <v>7638537.31</v>
+        <v>1773325.516810418</v>
       </c>
       <c r="F16">
-        <v>15307.69</v>
+        <v>197036.1685344909</v>
       </c>
       <c r="G16">
         <v>14</v>
@@ -771,13 +771,13 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>4951075.670908504</v>
       </c>
       <c r="E17">
-        <v>7638537.31</v>
+        <v>2432492.396182347</v>
       </c>
       <c r="F17">
-        <v>15307.69</v>
+        <v>270276.9329091496</v>
       </c>
       <c r="G17">
         <v>15</v>
@@ -794,13 +794,13 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>4313050.455493368</v>
       </c>
       <c r="E18">
-        <v>7638537.31</v>
+        <v>3006715.09005597</v>
       </c>
       <c r="F18">
-        <v>15307.69</v>
+        <v>334079.4544506632</v>
       </c>
       <c r="G18">
         <v>16</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>3757244.984344598</v>
       </c>
       <c r="E19">
-        <v>7638537.31</v>
+        <v>3506940.014089861</v>
       </c>
       <c r="F19">
-        <v>15307.69</v>
+        <v>389660.00156554</v>
       </c>
       <c r="G19">
         <v>17</v>
@@ -840,13 +840,13 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>3273063.929591294</v>
       </c>
       <c r="E20">
-        <v>7638537.31</v>
+        <v>3942702.963367835</v>
       </c>
       <c r="F20">
-        <v>15307.69</v>
+        <v>438078.1070408705</v>
       </c>
       <c r="G20">
         <v>18</v>
@@ -863,13 +863,13 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>2851277.340665699</v>
       </c>
       <c r="E21">
-        <v>7638537.31</v>
+        <v>4322310.893400871</v>
       </c>
       <c r="F21">
-        <v>15307.69</v>
+        <v>480256.76593343</v>
       </c>
       <c r="G21">
         <v>19</v>
@@ -886,16 +886,131 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>2483844.693619786</v>
       </c>
       <c r="E22">
-        <v>7638537.31</v>
+        <v>4653000.275742192</v>
       </c>
       <c r="F22">
-        <v>15307.69</v>
+        <v>517000.0306380212</v>
       </c>
       <c r="G22">
         <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>2163761.61449898</v>
+      </c>
+      <c r="E23">
+        <v>4941075.046950919</v>
+      </c>
+      <c r="F23">
+        <v>549008.3385501021</v>
+      </c>
+      <c r="G23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1884926.354858444</v>
+      </c>
+      <c r="E24">
+        <v>5192026.780627402</v>
+      </c>
+      <c r="F24">
+        <v>576891.8645141557</v>
+      </c>
+      <c r="G24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1642023.474042738</v>
+      </c>
+      <c r="E25">
+        <v>5410639.373361535</v>
+      </c>
+      <c r="F25">
+        <v>601182.1525957262</v>
+      </c>
+      <c r="G25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>1430422.51086243</v>
+      </c>
+      <c r="E26">
+        <v>5601080.240223813</v>
+      </c>
+      <c r="F26">
+        <v>622342.248913757</v>
+      </c>
+      <c r="G26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>1246089.713044336</v>
+      </c>
+      <c r="E27">
+        <v>5766979.758260097</v>
+      </c>
+      <c r="F27">
+        <v>640775.5286955665</v>
+      </c>
+      <c r="G27">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Second part/covidsim.xlsx
+++ b/Second part/covidsim.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1013,6 +1013,581 @@
         <v>25</v>
       </c>
     </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>1085511.141752613</v>
+      </c>
+      <c r="E28">
+        <v>5911500.472422648</v>
+      </c>
+      <c r="F28">
+        <v>656833.3858247388</v>
+      </c>
+      <c r="G28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>945625.6853210499</v>
+      </c>
+      <c r="E29">
+        <v>6037397.383211055</v>
+      </c>
+      <c r="F29">
+        <v>670821.931467895</v>
+      </c>
+      <c r="G29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>823766.7052363566</v>
+      </c>
+      <c r="E30">
+        <v>6147070.465287278</v>
+      </c>
+      <c r="F30">
+        <v>683007.8294763644</v>
+      </c>
+      <c r="G30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>717611.2019689623</v>
+      </c>
+      <c r="E31">
+        <v>6242610.418227933</v>
+      </c>
+      <c r="F31">
+        <v>693623.3798031039</v>
+      </c>
+      <c r="G31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>625135.5315988208</v>
+      </c>
+      <c r="E32">
+        <v>6325838.521561061</v>
+      </c>
+      <c r="F32">
+        <v>702870.946840118</v>
+      </c>
+      <c r="G32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>544576.8290615991</v>
+      </c>
+      <c r="E33">
+        <v>6398341.353844561</v>
+      </c>
+      <c r="F33">
+        <v>710926.8170938402</v>
+      </c>
+      <c r="G33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>474399.4026260297</v>
+      </c>
+      <c r="E34">
+        <v>6461501.037636572</v>
+      </c>
+      <c r="F34">
+        <v>717944.559737397</v>
+      </c>
+      <c r="G34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>413265.4589798514</v>
+      </c>
+      <c r="E35">
+        <v>6516521.586918133</v>
+      </c>
+      <c r="F35">
+        <v>724057.9541020149</v>
+      </c>
+      <c r="G35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>360009.6008562224</v>
+      </c>
+      <c r="E36">
+        <v>6564451.8592294</v>
+      </c>
+      <c r="F36">
+        <v>729383.5399143778</v>
+      </c>
+      <c r="G36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>313616.6110484822</v>
+      </c>
+      <c r="E37">
+        <v>6606205.550056366</v>
+      </c>
+      <c r="F37">
+        <v>734022.8388951519</v>
+      </c>
+      <c r="G37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>273202.0993096107</v>
+      </c>
+      <c r="E38">
+        <v>6642578.61062135</v>
+      </c>
+      <c r="F38">
+        <v>738064.2900690389</v>
+      </c>
+      <c r="G38">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>237995.6432079416</v>
+      </c>
+      <c r="E39">
+        <v>6674264.421112853</v>
+      </c>
+      <c r="F39">
+        <v>741584.9356792059</v>
+      </c>
+      <c r="G39">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>207326.1015530173</v>
+      </c>
+      <c r="E40">
+        <v>6701867.008602285</v>
+      </c>
+      <c r="F40">
+        <v>744651.8898446984</v>
+      </c>
+      <c r="G40">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>180608.8204212038</v>
+      </c>
+      <c r="E41">
+        <v>6725912.561620916</v>
+      </c>
+      <c r="F41">
+        <v>747323.6179578796</v>
+      </c>
+      <c r="G41">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>157334.4878893467</v>
+      </c>
+      <c r="E42">
+        <v>6746859.460899588</v>
+      </c>
+      <c r="F42">
+        <v>749651.0512110653</v>
+      </c>
+      <c r="G42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>137059.4250140886</v>
+      </c>
+      <c r="E43">
+        <v>6765107.01748732</v>
+      </c>
+      <c r="F43">
+        <v>751678.557498591</v>
+      </c>
+      <c r="G43">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>119397.1279736472</v>
+      </c>
+      <c r="E44">
+        <v>6781003.084823718</v>
+      </c>
+      <c r="F44">
+        <v>753444.7872026352</v>
+      </c>
+      <c r="G44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>104010.900139776</v>
+      </c>
+      <c r="E45">
+        <v>6794850.689874202</v>
+      </c>
+      <c r="F45">
+        <v>754983.4099860223</v>
+      </c>
+      <c r="G45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>90607.43362498819</v>
+      </c>
+      <c r="E46">
+        <v>6806913.809737511</v>
+      </c>
+      <c r="F46">
+        <v>756323.7566375011</v>
+      </c>
+      <c r="G46">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>78931.21794998359</v>
+      </c>
+      <c r="E47">
+        <v>6817422.403845015</v>
+      </c>
+      <c r="F47">
+        <v>757491.3782050016</v>
+      </c>
+      <c r="G47">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>68759.6692436241</v>
+      </c>
+      <c r="E48">
+        <v>6826576.797680738</v>
+      </c>
+      <c r="F48">
+        <v>758508.5330756375</v>
+      </c>
+      <c r="G48">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>59898.88712332443</v>
+      </c>
+      <c r="E49">
+        <v>6834551.501589008</v>
+      </c>
+      <c r="F49">
+        <v>759394.6112876676</v>
+      </c>
+      <c r="G49">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>52179.95836920718</v>
+      </c>
+      <c r="E50">
+        <v>6841498.537467713</v>
+      </c>
+      <c r="F50">
+        <v>760166.5041630794</v>
+      </c>
+      <c r="G50">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>45455.73692890807</v>
+      </c>
+      <c r="E51">
+        <v>6847550.336763983</v>
+      </c>
+      <c r="F51">
+        <v>760838.9263071093</v>
+      </c>
+      <c r="G51">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>39598.03887021558</v>
+      </c>
+      <c r="E52">
+        <v>6852822.265016806</v>
+      </c>
+      <c r="F52">
+        <v>761424.6961129785</v>
+      </c>
+      <c r="G52">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Second part/covidsim.xlsx
+++ b/Second part/covidsim.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>S</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>L</t>
   </si>
   <si>
     <t>time</t>
@@ -389,13 +395,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,13 +420,19 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7653844</v>
+        <v>2678844.75</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -437,238 +449,304 @@
       <c r="G2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7653839.700000562</v>
+        <v>2678838.450002352</v>
       </c>
       <c r="C3">
-        <v>4.29999943819087</v>
+        <v>6.299997648240852</v>
       </c>
       <c r="D3">
-        <v>0.8711340206</v>
+        <v>0.871134</v>
       </c>
       <c r="E3">
-        <v>0.11597938146</v>
+        <v>0.1030928</v>
       </c>
       <c r="F3">
-        <v>0.01288659794</v>
+        <v>0.0257732</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0.07938145600000002</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7653822.070044462</v>
+        <v>2678813.250250903</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>22.68883045893594</v>
+        <v>32.25862531718494</v>
       </c>
       <c r="E4">
-        <v>0.2170125726757499</v>
+        <v>0.1928990238183441</v>
       </c>
       <c r="F4">
-        <v>0.02411250807508332</v>
+        <v>0.04822475595458604</v>
       </c>
       <c r="G4">
+        <v>7.299997648224235</v>
+      </c>
+      <c r="H4">
+        <v>0.148533341291104</v>
+      </c>
+      <c r="I4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7653724.508365771</v>
+        <v>2678610.023376983</v>
       </c>
       <c r="C5">
-        <v>97.56167869004842</v>
+        <v>203.2268739204904</v>
       </c>
       <c r="D5">
-        <v>19.7650121004046</v>
+        <v>28.10158530706058</v>
       </c>
       <c r="E5">
-        <v>2.848449095353948</v>
+        <v>3.518531031917828</v>
       </c>
       <c r="F5">
-        <v>0.3164943439282164</v>
+        <v>0.8796327579794569</v>
       </c>
       <c r="G5">
+        <v>32.49974909704179</v>
+      </c>
+      <c r="H5">
+        <v>2.709268894576728</v>
+      </c>
+      <c r="I5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7653324.526904617</v>
+        <v>2677797.364738652</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>514.7613493834699</v>
+        <v>1040.367661820587</v>
       </c>
       <c r="E6">
-        <v>5.140571399204616</v>
+        <v>6.414079622481377</v>
       </c>
       <c r="F6">
-        <v>0.5711745999116241</v>
+        <v>1.603519905620344</v>
       </c>
       <c r="G6">
+        <v>235.7266230173409</v>
+      </c>
+      <c r="H6">
+        <v>4.940013652159404</v>
+      </c>
+      <c r="I6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7651111.203621853</v>
+        <v>2671245.613547285</v>
       </c>
       <c r="C7">
-        <v>2213.323282765436</v>
+        <v>6551.751191366514</v>
       </c>
       <c r="D7">
-        <v>448.4261239379035</v>
+        <v>906.2996427124148</v>
       </c>
       <c r="E7">
-        <v>64.84227430021443</v>
+        <v>113.6684949090188</v>
       </c>
       <c r="F7">
-        <v>7.20469714446827</v>
+        <v>28.41712372725469</v>
       </c>
       <c r="G7">
+        <v>1048.385261348449</v>
+      </c>
+      <c r="H7">
+        <v>87.52474107994445</v>
+      </c>
+      <c r="I7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7642047.594458642</v>
+        <v>2645295.522835042</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>11667.69282266821</v>
+        <v>33293.31764562563</v>
       </c>
       <c r="E8">
-        <v>116.7414468210009</v>
+        <v>205.5276154658907</v>
       </c>
       <c r="F8">
-        <v>12.9712718690001</v>
+        <v>51.38190386647268</v>
       </c>
       <c r="G8">
+        <v>7600.136452714913</v>
+      </c>
+      <c r="H8">
+        <v>159.4681262907357</v>
+      </c>
+      <c r="I8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7591953.847507413</v>
+        <v>2438174.532803317</v>
       </c>
       <c r="C9">
-        <v>50093.74695122802</v>
+        <v>207120.9900317253</v>
       </c>
       <c r="D9">
-        <v>10164.12415973672</v>
+        <v>29002.94097390444</v>
       </c>
       <c r="E9">
-        <v>1469.953243459341</v>
+        <v>3637.828952842845</v>
       </c>
       <c r="F9">
-        <v>163.328138162149</v>
+        <v>909.4572382107112</v>
       </c>
       <c r="G9">
+        <v>33550.22716495767</v>
+      </c>
+      <c r="H9">
+        <v>2801.128293688991</v>
+      </c>
+      <c r="I9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7392110.411273232</v>
+        <v>1821593.798410963</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>258852.511167788</v>
+        <v>850609.1898334008</v>
       </c>
       <c r="E10">
-        <v>2593.869803082413</v>
+        <v>5314.20940450875</v>
       </c>
       <c r="F10">
-        <v>288.2077558980459</v>
+        <v>1328.552351127187</v>
       </c>
       <c r="G10">
+        <v>240671.2171966834</v>
+      </c>
+      <c r="H10">
+        <v>5103.423976479583</v>
+      </c>
+      <c r="I10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6317107.550098646</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>1075002.861174585</v>
+        <v>2168662.685807084</v>
       </c>
       <c r="D11">
-        <v>225495.2287960016</v>
+        <v>440993.9081771816</v>
       </c>
       <c r="E11">
-        <v>32615.42393769021</v>
+        <v>55351.32481258787</v>
       </c>
       <c r="F11">
-        <v>3623.93599307669</v>
+        <v>13837.83120314697</v>
       </c>
       <c r="G11">
+        <v>857251.9515890365</v>
+      </c>
+      <c r="H11">
+        <v>71614.5372174275</v>
+      </c>
+      <c r="I11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3749634.807695789</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3859828.898834916</v>
+        <v>2649111.867937323</v>
       </c>
       <c r="E12">
-        <v>39943.16412236616</v>
+        <v>23787.10565014157</v>
       </c>
       <c r="F12">
-        <v>4438.129346929572</v>
+        <v>5946.776412535393</v>
       </c>
       <c r="G12">
+        <v>2678845.75</v>
+      </c>
+      <c r="H12">
+        <v>77627.25862392764</v>
+      </c>
+      <c r="I12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -676,22 +754,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5170952.482318482</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>2138344.908529429</v>
+        <v>2307731.417963712</v>
       </c>
       <c r="E13">
-        <v>310092.8482368791</v>
+        <v>296891.4656290305</v>
       </c>
       <c r="F13">
-        <v>34454.76091520879</v>
+        <v>74222.86640725764</v>
       </c>
       <c r="G13">
+        <v>2678845.75</v>
+      </c>
+      <c r="H13">
+        <v>228606.4285343535</v>
+      </c>
+      <c r="I13">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -702,19 +786,25 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7489358.847360807</v>
+        <v>2010343.3010564</v>
       </c>
       <c r="E14">
-        <v>148037.5373752725</v>
+        <v>534801.9591548798</v>
       </c>
       <c r="F14">
-        <v>16448.61526391917</v>
+        <v>133700.4897887199</v>
       </c>
       <c r="G14">
+        <v>2678845.75</v>
+      </c>
+      <c r="H14">
+        <v>411797.5085492575</v>
+      </c>
+      <c r="I14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -725,19 +815,25 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6524235.284417603</v>
+        <v>1751278.401222466</v>
       </c>
       <c r="E15">
-        <v>1016648.744024158</v>
+        <v>742053.8790220272</v>
       </c>
       <c r="F15">
-        <v>112960.9715582397</v>
+        <v>185513.4697555068</v>
       </c>
       <c r="G15">
+        <v>2678845.75</v>
+      </c>
+      <c r="H15">
+        <v>571381.4868469608</v>
+      </c>
+      <c r="I15">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -748,19 +844,25 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5683483.31465509</v>
+        <v>1525598.158770532</v>
       </c>
       <c r="E16">
-        <v>1773325.516810418</v>
+        <v>922598.0729835747</v>
       </c>
       <c r="F16">
-        <v>197036.1685344909</v>
+        <v>230649.5182458937</v>
       </c>
       <c r="G16">
+        <v>2678845.75</v>
+      </c>
+      <c r="H16">
+        <v>710400.5161973526</v>
+      </c>
+      <c r="I16">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -771,19 +873,25 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4951075.670908504</v>
+        <v>1329000.426442408</v>
       </c>
       <c r="E17">
-        <v>2432492.396182347</v>
+        <v>1079876.258846073</v>
       </c>
       <c r="F17">
-        <v>270276.9329091496</v>
+        <v>269969.0647115184</v>
       </c>
       <c r="G17">
+        <v>2678845.75</v>
+      </c>
+      <c r="H17">
+        <v>831504.7193114766</v>
+      </c>
+      <c r="I17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -794,19 +902,25 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4313050.455493368</v>
+        <v>1157737.457488481</v>
       </c>
       <c r="E18">
-        <v>3006715.09005597</v>
+        <v>1216886.634009215</v>
       </c>
       <c r="F18">
-        <v>334079.4544506632</v>
+        <v>304221.6585023038</v>
       </c>
       <c r="G18">
+        <v>2678845.75</v>
+      </c>
+      <c r="H18">
+        <v>937002.7081870958</v>
+      </c>
+      <c r="I18">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -817,19 +931,25 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3757244.984344598</v>
+        <v>1008544.46229177</v>
       </c>
       <c r="E19">
-        <v>3506940.014089861</v>
+        <v>1336241.030166584</v>
       </c>
       <c r="F19">
-        <v>389660.00156554</v>
+        <v>334060.257541646</v>
       </c>
       <c r="G19">
+        <v>2678845.75</v>
+      </c>
+      <c r="H19">
+        <v>1028905.59322827</v>
+      </c>
+      <c r="I19">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -840,19 +960,25 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3273063.929591294</v>
+        <v>878577.3716140791</v>
       </c>
       <c r="E20">
-        <v>3942702.963367835</v>
+        <v>1440214.702708737</v>
       </c>
       <c r="F20">
-        <v>438078.1070408705</v>
+        <v>360053.6756771842</v>
       </c>
       <c r="G20">
+        <v>2678845.75</v>
+      </c>
+      <c r="H20">
+        <v>1108965.321085728</v>
+      </c>
+      <c r="I20">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -863,19 +989,25 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2851277.340665699</v>
+        <v>765358.620043659</v>
       </c>
       <c r="E21">
-        <v>4322310.893400871</v>
+        <v>1530789.703965073</v>
       </c>
       <c r="F21">
-        <v>480256.76593343</v>
+        <v>382697.4259912682</v>
       </c>
       <c r="G21">
+        <v>2678845.75</v>
+      </c>
+      <c r="H21">
+        <v>1178708.072053106</v>
+      </c>
+      <c r="I21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -886,19 +1018,25 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2483844.693619786</v>
+        <v>666729.9161131128</v>
       </c>
       <c r="E22">
-        <v>4653000.275742192</v>
+        <v>1609692.66710951</v>
       </c>
       <c r="F22">
-        <v>517000.0306380212</v>
+        <v>402423.1667773774</v>
       </c>
       <c r="G22">
+        <v>2678845.75</v>
+      </c>
+      <c r="H22">
+        <v>1239463.353674323</v>
+      </c>
+      <c r="I22">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -909,19 +1047,25 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2163761.61449898</v>
+        <v>580811.0987432804</v>
       </c>
       <c r="E23">
-        <v>4941075.046950919</v>
+        <v>1678427.721005376</v>
       </c>
       <c r="F23">
-        <v>549008.3385501021</v>
+        <v>419606.9302513439</v>
       </c>
       <c r="G23">
+        <v>2678845.75</v>
+      </c>
+      <c r="H23">
+        <v>1292389.345174139</v>
+      </c>
+      <c r="I23">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -932,19 +1076,25 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1884926.354858444</v>
+        <v>505964.2956926289</v>
       </c>
       <c r="E24">
-        <v>5192026.780627402</v>
+        <v>1738305.163445897</v>
       </c>
       <c r="F24">
-        <v>576891.8645141557</v>
+        <v>434576.2908614743</v>
       </c>
       <c r="G24">
+        <v>2678845.75</v>
+      </c>
+      <c r="H24">
+        <v>1338494.975853341</v>
+      </c>
+      <c r="I24">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -955,19 +1105,25 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1642023.474042738</v>
+        <v>440762.7007639025</v>
       </c>
       <c r="E25">
-        <v>5410639.373361535</v>
+        <v>1790466.439388878</v>
       </c>
       <c r="F25">
-        <v>601182.1525957262</v>
+        <v>447616.6098472195</v>
       </c>
       <c r="G25">
+        <v>2678845.75</v>
+      </c>
+      <c r="H25">
+        <v>1378659.158329436</v>
+      </c>
+      <c r="I25">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -978,19 +1134,25 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>1430422.51086243</v>
+        <v>383963.3745672614</v>
       </c>
       <c r="E26">
-        <v>5601080.240223813</v>
+        <v>1835905.900346191</v>
       </c>
       <c r="F26">
-        <v>622342.248913757</v>
+        <v>458976.4750865478</v>
       </c>
       <c r="G26">
+        <v>2678845.75</v>
+      </c>
+      <c r="H26">
+        <v>1413647.543266567</v>
+      </c>
+      <c r="I26">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:9">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1001,19 +1163,25 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>1246089.713044336</v>
+        <v>334483.5503402767</v>
       </c>
       <c r="E27">
-        <v>5766979.758260097</v>
+        <v>1875489.759727779</v>
       </c>
       <c r="F27">
-        <v>640775.5286955665</v>
+        <v>468872.4399319447</v>
       </c>
       <c r="G27">
+        <v>2678845.75</v>
+      </c>
+      <c r="H27">
+        <v>1444127.11499039</v>
+      </c>
+      <c r="I27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:9">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1024,19 +1192,25 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>1085511.141752613</v>
+        <v>291379.9931421266</v>
       </c>
       <c r="E28">
-        <v>5911500.472422648</v>
+        <v>1909972.605486299</v>
       </c>
       <c r="F28">
-        <v>656833.3858247388</v>
+        <v>477493.1513715747</v>
       </c>
       <c r="G28">
+        <v>2678845.75</v>
+      </c>
+      <c r="H28">
+        <v>1470678.90622445</v>
+      </c>
+      <c r="I28">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:9">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1047,19 +1221,25 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>945625.6853210499</v>
+        <v>253831.0189458732</v>
       </c>
       <c r="E29">
-        <v>6037397.383211055</v>
+        <v>1940011.784843301</v>
       </c>
       <c r="F29">
-        <v>670821.931467895</v>
+        <v>485002.9462108253</v>
       </c>
       <c r="G29">
+        <v>2678845.75</v>
+      </c>
+      <c r="H29">
+        <v>1493809.074329342</v>
+      </c>
+      <c r="I29">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:9">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1070,19 +1250,25 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>823766.7052363566</v>
+        <v>221120.8308583943</v>
       </c>
       <c r="E30">
-        <v>6147070.465287278</v>
+        <v>1966179.935313284</v>
       </c>
       <c r="F30">
-        <v>683007.8294763644</v>
+        <v>491544.9838283211</v>
       </c>
       <c r="G30">
+        <v>2678845.75</v>
+      </c>
+      <c r="H30">
+        <v>1513958.550191229</v>
+      </c>
+      <c r="I30">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:9">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1093,19 +1279,25 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>717611.2019689623</v>
+        <v>192625.8738689965</v>
       </c>
       <c r="E31">
-        <v>6242610.418227933</v>
+        <v>1988975.900904803</v>
       </c>
       <c r="F31">
-        <v>693623.3798031039</v>
+        <v>497243.9752262008</v>
       </c>
       <c r="G31">
+        <v>2678845.75</v>
+      </c>
+      <c r="H31">
+        <v>1531511.443696698</v>
+      </c>
+      <c r="I31">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:9">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1116,19 +1308,25 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>625135.5315988208</v>
+        <v>167802.9480069944</v>
       </c>
       <c r="E32">
-        <v>6325838.521561061</v>
+        <v>2008834.241594405</v>
       </c>
       <c r="F32">
-        <v>702870.946840118</v>
+        <v>502208.5603986012</v>
       </c>
       <c r="G32">
+        <v>2678845.75</v>
+      </c>
+      <c r="H32">
+        <v>1546802.366027692</v>
+      </c>
+      <c r="I32">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:9">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1139,19 +1337,25 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>544576.8290615991</v>
+        <v>146178.853309125</v>
       </c>
       <c r="E33">
-        <v>6398341.353844561</v>
+        <v>2026133.5173527</v>
       </c>
       <c r="F33">
-        <v>710926.8170938402</v>
+        <v>506533.3793381751</v>
       </c>
       <c r="G33">
+        <v>2678845.75</v>
+      </c>
+      <c r="H33">
+        <v>1560122.808361579</v>
+      </c>
+      <c r="I33">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:9">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1162,19 +1366,25 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>474399.4026260297</v>
+        <v>127341.3691985913</v>
       </c>
       <c r="E34">
-        <v>6461501.037636572</v>
+        <v>2041203.504641127</v>
       </c>
       <c r="F34">
-        <v>717944.559737397</v>
+        <v>510300.8761602818</v>
       </c>
       <c r="G34">
+        <v>2678845.75</v>
+      </c>
+      <c r="H34">
+        <v>1571726.698573668</v>
+      </c>
+      <c r="I34">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:9">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1185,19 +1395,25 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>413265.4589798514</v>
+        <v>110931.3963154456</v>
       </c>
       <c r="E35">
-        <v>6516521.586918133</v>
+        <v>2054331.482947643</v>
       </c>
       <c r="F35">
-        <v>724057.9541020149</v>
+        <v>513582.8707369108</v>
       </c>
       <c r="G35">
+        <v>2678845.75</v>
+      </c>
+      <c r="H35">
+        <v>1581835.241869686</v>
+      </c>
+      <c r="I35">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:9">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1208,19 +1424,25 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>360009.6008562224</v>
+        <v>96636.11099785942</v>
       </c>
       <c r="E36">
-        <v>6564451.8592294</v>
+        <v>2065767.711201712</v>
       </c>
       <c r="F36">
-        <v>729383.5399143778</v>
+        <v>516441.9278004281</v>
       </c>
       <c r="G36">
+        <v>2678845.75</v>
+      </c>
+      <c r="H36">
+        <v>1590641.137625318</v>
+      </c>
+      <c r="I36">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:9">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1231,19 +1453,25 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>313616.6110484822</v>
+        <v>84183.00191800926</v>
       </c>
       <c r="E37">
-        <v>6606205.550056366</v>
+        <v>2075730.198465592</v>
       </c>
       <c r="F37">
-        <v>734022.8388951519</v>
+        <v>518932.5496163981</v>
       </c>
       <c r="G37">
+        <v>2678845.75</v>
+      </c>
+      <c r="H37">
+        <v>1598312.252818506</v>
+      </c>
+      <c r="I37">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:9">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1254,19 +1482,25 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>273202.0993096107</v>
+        <v>73334.67519284307</v>
       </c>
       <c r="E38">
-        <v>6642578.61062135</v>
+        <v>2084408.859845726</v>
       </c>
       <c r="F38">
-        <v>738064.2900690389</v>
+        <v>521102.2149614314</v>
       </c>
       <c r="G38">
+        <v>2678845.75</v>
+      </c>
+      <c r="H38">
+        <v>1604994.822081208</v>
+      </c>
+      <c r="I38">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:9">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1277,19 +1511,25 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>237995.6432079416</v>
+        <v>63884.32893944216</v>
       </c>
       <c r="E39">
-        <v>6674264.421112853</v>
+        <v>2091969.136848446</v>
       </c>
       <c r="F39">
-        <v>741584.9356792059</v>
+        <v>522992.2842121116</v>
       </c>
       <c r="G39">
+        <v>2678845.75</v>
+      </c>
+      <c r="H39">
+        <v>1610816.235373304</v>
+      </c>
+      <c r="I39">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:9">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1300,19 +1540,25 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>207326.1015530173</v>
+        <v>55651.81100633201</v>
       </c>
       <c r="E40">
-        <v>6701867.008602285</v>
+        <v>2098555.151194935</v>
       </c>
       <c r="F40">
-        <v>744651.8898446984</v>
+        <v>524638.7877987337</v>
       </c>
       <c r="G40">
+        <v>2678845.75</v>
+      </c>
+      <c r="H40">
+        <v>1615887.4664201</v>
+      </c>
+      <c r="I40">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:9">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1323,19 +1569,25 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>180608.8204212038</v>
+        <v>48480.18472919</v>
       </c>
       <c r="E41">
-        <v>6725912.561620916</v>
+        <v>2104292.452216648</v>
       </c>
       <c r="F41">
-        <v>747323.6179578796</v>
+        <v>526073.1130541619</v>
       </c>
       <c r="G41">
+        <v>2678845.75</v>
+      </c>
+      <c r="H41">
+        <v>1620305.188206819</v>
+      </c>
+      <c r="I41">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:9">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1346,19 +1598,25 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>157334.4878893467</v>
+        <v>42232.73724387821</v>
       </c>
       <c r="E42">
-        <v>6746859.460899588</v>
+        <v>2109290.410204898</v>
       </c>
       <c r="F42">
-        <v>749651.0512110653</v>
+        <v>527322.6025512244</v>
       </c>
       <c r="G42">
+        <v>2678845.75</v>
+      </c>
+      <c r="H42">
+        <v>1624153.615857771</v>
+      </c>
+      <c r="I42">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:9">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1369,19 +1627,25 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>137059.4250140886</v>
+        <v>36790.3733262086</v>
       </c>
       <c r="E43">
-        <v>6765107.01748732</v>
+        <v>2113644.301339033</v>
       </c>
       <c r="F43">
-        <v>751678.557498591</v>
+        <v>528411.0753347583</v>
       </c>
       <c r="G43">
+        <v>2678845.75</v>
+      </c>
+      <c r="H43">
+        <v>1627506.112031056</v>
+      </c>
+      <c r="I43">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:9">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1392,19 +1656,25 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>119397.1279736472</v>
+        <v>32049.3450771534</v>
       </c>
       <c r="E44">
-        <v>6781003.084823718</v>
+        <v>2117437.123938277</v>
       </c>
       <c r="F44">
-        <v>753444.7872026352</v>
+        <v>529359.2809845693</v>
       </c>
       <c r="G44">
+        <v>2678845.75</v>
+      </c>
+      <c r="H44">
+        <v>1630426.585432474</v>
+      </c>
+      <c r="I44">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:9">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1415,19 +1685,25 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>104010.900139776</v>
+        <v>27919.27417444095</v>
       </c>
       <c r="E45">
-        <v>6794850.689874202</v>
+        <v>2120741.180660447</v>
       </c>
       <c r="F45">
-        <v>754983.4099860223</v>
+        <v>530185.2951651118</v>
       </c>
       <c r="G45">
+        <v>2678845.75</v>
+      </c>
+      <c r="H45">
+        <v>1632970.709108544</v>
+      </c>
+      <c r="I45">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:9">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1438,19 +1714,25 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>90607.43362498819</v>
+        <v>24321.42898867745</v>
       </c>
       <c r="E46">
-        <v>6806913.809737511</v>
+        <v>2123619.456809058</v>
       </c>
       <c r="F46">
-        <v>756323.7566375011</v>
+        <v>530904.8642022645</v>
       </c>
       <c r="G46">
+        <v>2678845.75</v>
+      </c>
+      <c r="H46">
+        <v>1635186.981742975</v>
+      </c>
+      <c r="I46">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:9">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1461,19 +1743,25 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>78931.21794998359</v>
+        <v>21187.22372062254</v>
       </c>
       <c r="E47">
-        <v>6817422.403845015</v>
+        <v>2126126.821023502</v>
       </c>
       <c r="F47">
-        <v>757491.3782050016</v>
+        <v>531531.7052558755</v>
       </c>
       <c r="G47">
+        <v>2678845.75</v>
+      </c>
+      <c r="H47">
+        <v>1637117.652188096</v>
+      </c>
+      <c r="I47">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:9">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1484,19 +1772,25 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>68759.6692436241</v>
+        <v>18456.91094864079</v>
       </c>
       <c r="E48">
-        <v>6826576.797680738</v>
+        <v>2128311.071241087</v>
       </c>
       <c r="F48">
-        <v>758508.5330756375</v>
+        <v>532077.7678102718</v>
       </c>
       <c r="G48">
+        <v>2678845.75</v>
+      </c>
+      <c r="H48">
+        <v>1638799.524855637</v>
+      </c>
+      <c r="I48">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:9">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1507,19 +1801,25 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>59898.88712332443</v>
+        <v>16078.44266233325</v>
       </c>
       <c r="E49">
-        <v>6834551.501589008</v>
+        <v>2130213.845870133</v>
       </c>
       <c r="F49">
-        <v>759394.6112876676</v>
+        <v>532553.4614675334</v>
       </c>
       <c r="G49">
+        <v>2678845.75</v>
+      </c>
+      <c r="H49">
+        <v>1640264.661320003</v>
+      </c>
+      <c r="I49">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:9">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1530,19 +1830,25 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>52179.95836920718</v>
+        <v>14006.47807020901</v>
       </c>
       <c r="E50">
-        <v>6841498.537467713</v>
+        <v>2131871.417543833</v>
       </c>
       <c r="F50">
-        <v>760166.5041630794</v>
+        <v>532967.8543859583</v>
       </c>
       <c r="G50">
+        <v>2678845.75</v>
+      </c>
+      <c r="H50">
+        <v>1641540.991508751</v>
+      </c>
+      <c r="I50">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:9">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1553,19 +1859,25 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>45455.73692890807</v>
+        <v>12201.51926721346</v>
       </c>
       <c r="E51">
-        <v>6847550.336763983</v>
+        <v>2133315.384586229</v>
       </c>
       <c r="F51">
-        <v>760838.9263071093</v>
+        <v>533328.8461465572</v>
       </c>
       <c r="G51">
+        <v>2678845.75</v>
+      </c>
+      <c r="H51">
+        <v>1642652.846131397</v>
+      </c>
+      <c r="I51">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:9">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1576,15 +1888,21 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>39598.03887021558</v>
+        <v>10629.15828532473</v>
       </c>
       <c r="E52">
-        <v>6852822.265016806</v>
+        <v>2134573.27337174</v>
       </c>
       <c r="F52">
-        <v>761424.6961129785</v>
+        <v>533643.3183429351</v>
       </c>
       <c r="G52">
+        <v>2678845.75</v>
+      </c>
+      <c r="H52">
+        <v>1643621.42049624</v>
+      </c>
+      <c r="I52">
         <v>50</v>
       </c>
     </row>

--- a/Second part/covidsim.xlsx
+++ b/Second part/covidsim.xlsx
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.07938145600000002</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -508,7 +508,7 @@
         <v>7.299997648224235</v>
       </c>
       <c r="H4">
-        <v>0.148533341291104</v>
+        <v>0.01675258</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -537,7 +537,7 @@
         <v>32.49974909704179</v>
       </c>
       <c r="H5">
-        <v>2.709268894576728</v>
+        <v>0.03134609137048092</v>
       </c>
       <c r="I5">
         <v>3</v>
@@ -566,7 +566,7 @@
         <v>235.7266230173409</v>
       </c>
       <c r="H6">
-        <v>4.940013652159404</v>
+        <v>0.571761292686647</v>
       </c>
       <c r="I6">
         <v>4</v>
@@ -595,7 +595,7 @@
         <v>1048.385261348449</v>
       </c>
       <c r="H7">
-        <v>87.52474107994445</v>
+        <v>1.042287938653224</v>
       </c>
       <c r="I7">
         <v>5</v>
@@ -624,7 +624,7 @@
         <v>7600.136452714913</v>
       </c>
       <c r="H8">
-        <v>159.4681262907357</v>
+        <v>18.47113042271555</v>
       </c>
       <c r="I8">
         <v>6</v>
@@ -653,7 +653,7 @@
         <v>33550.22716495767</v>
       </c>
       <c r="H9">
-        <v>2801.128293688991</v>
+        <v>33.39823751320724</v>
       </c>
       <c r="I9">
         <v>7</v>
@@ -682,7 +682,7 @@
         <v>240671.2171966834</v>
       </c>
       <c r="H10">
-        <v>5103.423976479583</v>
+        <v>591.1472048369624</v>
       </c>
       <c r="I10">
         <v>8</v>
@@ -711,7 +711,7 @@
         <v>857251.9515890365</v>
       </c>
       <c r="H11">
-        <v>71614.5372174275</v>
+        <v>863.5590282326718</v>
       </c>
       <c r="I11">
         <v>9</v>
@@ -740,7 +740,7 @@
         <v>2678845.75</v>
       </c>
       <c r="H12">
-        <v>77627.25862392764</v>
+        <v>8994.59028204553</v>
       </c>
       <c r="I12">
         <v>10</v>
@@ -769,7 +769,7 @@
         <v>2678845.75</v>
       </c>
       <c r="H13">
-        <v>228606.4285343535</v>
+        <v>3865.404668148006</v>
       </c>
       <c r="I13">
         <v>11</v>
@@ -798,7 +798,7 @@
         <v>2678845.75</v>
       </c>
       <c r="H14">
-        <v>411797.5085492575</v>
+        <v>48244.86316471746</v>
       </c>
       <c r="I14">
         <v>12</v>
@@ -827,7 +827,7 @@
         <v>2678845.75</v>
       </c>
       <c r="H15">
-        <v>571381.4868469608</v>
+        <v>86905.31836266797</v>
       </c>
       <c r="I15">
         <v>13</v>
@@ -856,7 +856,7 @@
         <v>2678845.75</v>
       </c>
       <c r="H16">
-        <v>710400.5161973526</v>
+        <v>120583.7553410794</v>
       </c>
       <c r="I16">
         <v>14</v>
@@ -885,7 +885,7 @@
         <v>2678845.75</v>
       </c>
       <c r="H17">
-        <v>831504.7193114766</v>
+        <v>149922.1868598309</v>
       </c>
       <c r="I17">
         <v>15</v>
@@ -914,7 +914,7 @@
         <v>2678845.75</v>
       </c>
       <c r="H18">
-        <v>937002.7081870958</v>
+        <v>175479.8920624869</v>
       </c>
       <c r="I18">
         <v>16</v>
@@ -943,7 +943,7 @@
         <v>2678845.75</v>
       </c>
       <c r="H19">
-        <v>1028905.59322827</v>
+        <v>197744.0780264975</v>
       </c>
       <c r="I19">
         <v>17</v>
@@ -972,7 +972,7 @@
         <v>2678845.75</v>
       </c>
       <c r="H20">
-        <v>1108965.321085728</v>
+        <v>217139.1674020699</v>
       </c>
       <c r="I20">
         <v>18</v>
@@ -1001,7 +1001,7 @@
         <v>2678845.75</v>
       </c>
       <c r="H21">
-        <v>1178708.072053106</v>
+        <v>234034.8891901698</v>
       </c>
       <c r="I21">
         <v>19</v>
@@ -1030,7 +1030,7 @@
         <v>2678845.75</v>
       </c>
       <c r="H22">
-        <v>1239463.353674323</v>
+        <v>248753.3268943243</v>
       </c>
       <c r="I22">
         <v>20</v>
@@ -1059,7 +1059,7 @@
         <v>2678845.75</v>
       </c>
       <c r="H23">
-        <v>1292389.345174139</v>
+        <v>261575.0584052953</v>
       </c>
       <c r="I23">
         <v>21</v>
@@ -1088,7 +1088,7 @@
         <v>2678845.75</v>
       </c>
       <c r="H24">
-        <v>1338494.975853341</v>
+        <v>272744.5046633736</v>
       </c>
       <c r="I24">
         <v>22</v>
@@ -1117,7 +1117,7 @@
         <v>2678845.75</v>
       </c>
       <c r="H25">
-        <v>1378659.158329436</v>
+        <v>282474.5890599583</v>
       </c>
       <c r="I25">
         <v>23</v>
@@ -1146,7 +1146,7 @@
         <v>2678845.75</v>
       </c>
       <c r="H26">
-        <v>1413647.543266567</v>
+        <v>290950.7964006927</v>
       </c>
       <c r="I26">
         <v>24</v>
@@ -1175,7 +1175,7 @@
         <v>2678845.75</v>
       </c>
       <c r="H27">
-        <v>1444127.11499039</v>
+        <v>298334.7088062561</v>
       </c>
       <c r="I27">
         <v>25</v>
@@ -1204,7 +1204,7 @@
         <v>2678845.75</v>
       </c>
       <c r="H28">
-        <v>1470678.90622445</v>
+        <v>304767.0859557641</v>
       </c>
       <c r="I28">
         <v>26</v>
@@ -1233,7 +1233,7 @@
         <v>2678845.75</v>
       </c>
       <c r="H29">
-        <v>1493809.074329342</v>
+        <v>310370.5483915236</v>
       </c>
       <c r="I29">
         <v>27</v>
@@ -1262,7 +1262,7 @@
         <v>2678845.75</v>
       </c>
       <c r="H30">
-        <v>1513958.550191229</v>
+        <v>315251.9150370365</v>
       </c>
       <c r="I30">
         <v>28</v>
@@ -1291,7 +1291,7 @@
         <v>2678845.75</v>
       </c>
       <c r="H31">
-        <v>1531511.443696698</v>
+        <v>319504.2394884087</v>
       </c>
       <c r="I31">
         <v>29</v>
@@ -1320,7 +1320,7 @@
         <v>2678845.75</v>
       </c>
       <c r="H32">
-        <v>1546802.366027692</v>
+        <v>323208.5838970305</v>
       </c>
       <c r="I32">
         <v>30</v>
@@ -1349,7 +1349,7 @@
         <v>2678845.75</v>
       </c>
       <c r="H33">
-        <v>1560122.808361579</v>
+        <v>326435.5642590908</v>
       </c>
       <c r="I33">
         <v>31</v>
@@ -1378,7 +1378,7 @@
         <v>2678845.75</v>
       </c>
       <c r="H34">
-        <v>1571726.698573668</v>
+        <v>329246.6965698138</v>
       </c>
       <c r="I34">
         <v>32</v>
@@ -1407,7 +1407,7 @@
         <v>2678845.75</v>
       </c>
       <c r="H35">
-        <v>1581835.241869686</v>
+        <v>331695.5695041831</v>
       </c>
       <c r="I35">
         <v>33</v>
@@ -1436,7 +1436,7 @@
         <v>2678845.75</v>
       </c>
       <c r="H36">
-        <v>1590641.137625318</v>
+        <v>333828.8659789921</v>
       </c>
       <c r="I36">
         <v>34</v>
@@ -1465,7 +1465,7 @@
         <v>2678845.75</v>
       </c>
       <c r="H37">
-        <v>1598312.252818506</v>
+        <v>335687.2530702783</v>
       </c>
       <c r="I37">
         <v>35</v>
@@ -1494,7 +1494,7 @@
         <v>2678845.75</v>
       </c>
       <c r="H38">
-        <v>1604994.822081208</v>
+        <v>337306.1572506588</v>
       </c>
       <c r="I38">
         <v>36</v>
@@ -1523,7 +1523,7 @@
         <v>2678845.75</v>
       </c>
       <c r="H39">
-        <v>1610816.235373304</v>
+        <v>338716.4397249304</v>
       </c>
       <c r="I39">
         <v>37</v>
@@ -1552,7 +1552,7 @@
         <v>2678845.75</v>
       </c>
       <c r="H40">
-        <v>1615887.4664201</v>
+        <v>339944.9847378726</v>
       </c>
       <c r="I40">
         <v>38</v>
@@ -1581,7 +1581,7 @@
         <v>2678845.75</v>
       </c>
       <c r="H41">
-        <v>1620305.188206819</v>
+        <v>341015.2120691769</v>
       </c>
       <c r="I41">
         <v>39</v>
@@ -1610,7 +1610,7 @@
         <v>2678845.75</v>
       </c>
       <c r="H42">
-        <v>1624153.615857771</v>
+        <v>341947.5234852053</v>
       </c>
       <c r="I42">
         <v>40</v>
@@ -1639,7 +1639,7 @@
         <v>2678845.75</v>
       </c>
       <c r="H43">
-        <v>1627506.112031056</v>
+        <v>342759.6916582959</v>
       </c>
       <c r="I43">
         <v>41</v>
@@ -1668,7 +1668,7 @@
         <v>2678845.75</v>
       </c>
       <c r="H44">
-        <v>1630426.585432474</v>
+        <v>343467.1989675929</v>
       </c>
       <c r="I44">
         <v>42</v>
@@ -1697,7 +1697,7 @@
         <v>2678845.75</v>
       </c>
       <c r="H45">
-        <v>1632970.709108544</v>
+        <v>344083.5326399701</v>
       </c>
       <c r="I45">
         <v>43</v>
@@ -1726,7 +1726,7 @@
         <v>2678845.75</v>
       </c>
       <c r="H46">
-        <v>1635186.981742975</v>
+        <v>344620.4418573226</v>
       </c>
       <c r="I46">
         <v>44</v>
@@ -1755,7 +1755,7 @@
         <v>2678845.75</v>
       </c>
       <c r="H47">
-        <v>1637117.652188096</v>
+        <v>345088.1617314719</v>
       </c>
       <c r="I47">
         <v>45</v>
@@ -1784,7 +1784,7 @@
         <v>2678845.75</v>
       </c>
       <c r="H48">
-        <v>1638799.524855637</v>
+        <v>345495.6084163191</v>
       </c>
       <c r="I48">
         <v>46</v>
@@ -1813,7 +1813,7 @@
         <v>2678845.75</v>
       </c>
       <c r="H49">
-        <v>1640264.661320003</v>
+        <v>345850.5490766767</v>
       </c>
       <c r="I49">
         <v>47</v>
@@ -1842,7 +1842,7 @@
         <v>2678845.75</v>
       </c>
       <c r="H50">
-        <v>1641540.991508751</v>
+        <v>346159.7499538967</v>
       </c>
       <c r="I50">
         <v>48</v>
@@ -1871,7 +1871,7 @@
         <v>2678845.75</v>
       </c>
       <c r="H51">
-        <v>1642652.846131397</v>
+        <v>346429.1053508729</v>
       </c>
       <c r="I51">
         <v>49</v>
@@ -1900,7 +1900,7 @@
         <v>2678845.75</v>
       </c>
       <c r="H52">
-        <v>1643621.42049624</v>
+        <v>346663.7499952622</v>
       </c>
       <c r="I52">
         <v>50</v>

--- a/Second part/covidsim.xlsx
+++ b/Second part/covidsim.xlsx
@@ -432,7 +432,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2678844.75</v>
+        <v>6352690.35</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2678838.450002352</v>
+        <v>6352689.550000126</v>
       </c>
       <c r="C3">
-        <v>6.299997648240852</v>
+        <v>0.799999874069122</v>
       </c>
       <c r="D3">
         <v>0.871134</v>
@@ -490,22 +490,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2678813.250250903</v>
+        <v>6352686.350002599</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>32.25862531718494</v>
+        <v>4.758871941207106</v>
       </c>
       <c r="E4">
-        <v>0.1928990238183441</v>
+        <v>0.192900367228444</v>
       </c>
       <c r="F4">
-        <v>0.04822475595458604</v>
+        <v>0.048225091807111</v>
       </c>
       <c r="G4">
-        <v>7.299997648224235</v>
+        <v>1.799999874085188</v>
       </c>
       <c r="H4">
         <v>0.01675258</v>
@@ -519,25 +519,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2678610.023376983</v>
+        <v>6352682.542908044</v>
       </c>
       <c r="C5">
-        <v>203.2268739204904</v>
+        <v>3.807094556522632</v>
       </c>
       <c r="D5">
-        <v>28.10158530706058</v>
+        <v>4.145615149631512</v>
       </c>
       <c r="E5">
-        <v>3.518531031917828</v>
+        <v>0.6835058004889202</v>
       </c>
       <c r="F5">
-        <v>0.8796327579794569</v>
+        <v>0.17087645012223</v>
       </c>
       <c r="G5">
-        <v>32.49974909704179</v>
+        <v>4.999997400678694</v>
       </c>
       <c r="H5">
-        <v>0.03134609137048092</v>
+        <v>0.03134630967462215</v>
       </c>
       <c r="I5">
         <v>3</v>
@@ -548,25 +548,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2677797.364738652</v>
+        <v>6352667.314574885</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1040.367661820587</v>
+        <v>22.64681662547201</v>
       </c>
       <c r="E6">
-        <v>6.414079622481377</v>
+        <v>1.110886790970173</v>
       </c>
       <c r="F6">
-        <v>1.603519905620344</v>
+        <v>0.2777216977425432</v>
       </c>
       <c r="G6">
-        <v>235.7266230173409</v>
+        <v>8.807091956026852</v>
       </c>
       <c r="H6">
-        <v>0.571761292686647</v>
+        <v>0.1110696925794495</v>
       </c>
       <c r="I6">
         <v>4</v>
@@ -577,25 +577,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2671245.613547285</v>
+        <v>6352649.197190133</v>
       </c>
       <c r="C7">
-        <v>6551.751191366514</v>
+        <v>18.11738475294345</v>
       </c>
       <c r="D7">
-        <v>906.2996427124148</v>
+        <v>19.72841195421394</v>
       </c>
       <c r="E7">
-        <v>113.6684949090188</v>
+        <v>3.445610527976635</v>
       </c>
       <c r="F7">
-        <v>28.41712372725469</v>
+        <v>0.8614026319941587</v>
       </c>
       <c r="G7">
-        <v>1048.385261348449</v>
+        <v>24.03542511444539</v>
       </c>
       <c r="H7">
-        <v>1.042287938653224</v>
+        <v>0.1805191035326531</v>
       </c>
       <c r="I7">
         <v>5</v>
@@ -606,25 +606,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2645295.522835042</v>
+        <v>6352576.72867392</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>33293.31764562563</v>
+        <v>107.7720525026427</v>
       </c>
       <c r="E8">
-        <v>205.5276154658907</v>
+        <v>5.479418861440471</v>
       </c>
       <c r="F8">
-        <v>51.38190386647268</v>
+        <v>1.369854715360118</v>
       </c>
       <c r="G8">
-        <v>7600.136452714913</v>
+        <v>42.15280986670405</v>
       </c>
       <c r="H8">
-        <v>18.47113042271555</v>
+        <v>0.5599117107962032</v>
       </c>
       <c r="I8">
         <v>6</v>
@@ -635,25 +635,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2438174.532803317</v>
+        <v>6352490.512587539</v>
       </c>
       <c r="C9">
-        <v>207120.9900317253</v>
+        <v>86.21608638105322</v>
       </c>
       <c r="D9">
-        <v>29002.94097390444</v>
+        <v>93.88389918483716</v>
       </c>
       <c r="E9">
-        <v>3637.828952842845</v>
+        <v>16.58994151568492</v>
       </c>
       <c r="F9">
-        <v>909.4572382107112</v>
+        <v>4.147485378921229</v>
       </c>
       <c r="G9">
-        <v>33550.22716495767</v>
+        <v>114.6213260795921</v>
       </c>
       <c r="H9">
-        <v>33.39823751320724</v>
+        <v>0.8904055649840765</v>
       </c>
       <c r="I9">
         <v>7</v>
@@ -664,25 +664,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1821593.798410963</v>
+        <v>6352145.671413617</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>850609.1898334008</v>
+        <v>512.8441112129887</v>
       </c>
       <c r="E10">
-        <v>5314.20940450875</v>
+        <v>26.26758013553027</v>
       </c>
       <c r="F10">
-        <v>1328.552351127187</v>
+        <v>6.566895033882568</v>
       </c>
       <c r="G10">
-        <v>240671.2171966834</v>
+        <v>200.8374124607071</v>
       </c>
       <c r="H10">
-        <v>591.1472048369624</v>
+        <v>2.695865496298799</v>
       </c>
       <c r="I10">
         <v>8</v>
@@ -693,25 +693,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>6351735.431366157</v>
       </c>
       <c r="C11">
-        <v>2168662.685807084</v>
+        <v>410.2400474597652</v>
       </c>
       <c r="D11">
-        <v>440993.9081771816</v>
+        <v>446.7559419774156</v>
       </c>
       <c r="E11">
-        <v>55351.32481258787</v>
+        <v>79.13811552398866</v>
       </c>
       <c r="F11">
-        <v>13837.83120314697</v>
+        <v>19.78452888099716</v>
       </c>
       <c r="G11">
-        <v>857251.9515890365</v>
+        <v>545.6785863824189</v>
       </c>
       <c r="H11">
-        <v>863.5590282326718</v>
+        <v>4.268481772023669</v>
       </c>
       <c r="I11">
         <v>9</v>
@@ -722,25 +722,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>6350094.995789276</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2649111.867937323</v>
+        <v>2439.891529565515</v>
       </c>
       <c r="E12">
-        <v>23787.10565014157</v>
+        <v>125.1701449269209</v>
       </c>
       <c r="F12">
-        <v>5946.776412535393</v>
+        <v>31.29253623173022</v>
       </c>
       <c r="G12">
-        <v>2678845.75</v>
+        <v>955.9186338428408</v>
       </c>
       <c r="H12">
-        <v>8994.59028204553</v>
+        <v>12.85994377264816</v>
       </c>
       <c r="I12">
         <v>10</v>
@@ -751,25 +751,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>6348143.880315402</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1951.115473873935</v>
       </c>
       <c r="D13">
-        <v>2307731.417963712</v>
+        <v>2125.472467716525</v>
       </c>
       <c r="E13">
-        <v>296891.4656290305</v>
+        <v>376.7053944061126</v>
       </c>
       <c r="F13">
-        <v>74222.86640725764</v>
+        <v>94.17634860152816</v>
       </c>
       <c r="G13">
-        <v>2678845.75</v>
+        <v>2596.354210724123</v>
       </c>
       <c r="H13">
-        <v>3865.404668148006</v>
+        <v>20.34014855062464</v>
       </c>
       <c r="I13">
         <v>11</v>
@@ -780,25 +780,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>6340351.277937627</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2010343.3010564</v>
+        <v>11596.00427620061</v>
       </c>
       <c r="E14">
-        <v>534801.9591548798</v>
+        <v>595.254228937092</v>
       </c>
       <c r="F14">
-        <v>133700.4897887199</v>
+        <v>148.813557234273</v>
       </c>
       <c r="G14">
-        <v>2678845.75</v>
+        <v>4547.469684598036</v>
       </c>
       <c r="H14">
-        <v>48244.86316471746</v>
+        <v>61.2146265909933</v>
       </c>
       <c r="I14">
         <v>12</v>
@@ -809,25 +809,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>6331092.494662211</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>9258.783275416487</v>
       </c>
       <c r="D15">
-        <v>1751278.401222466</v>
+        <v>10101.67358914374</v>
       </c>
       <c r="E15">
-        <v>742053.8790220272</v>
+        <v>1790.718778582586</v>
       </c>
       <c r="F15">
-        <v>185513.4697555068</v>
+        <v>447.6796946456465</v>
       </c>
       <c r="G15">
-        <v>2678845.75</v>
+        <v>12340.07206237223</v>
       </c>
       <c r="H15">
-        <v>86905.31836266797</v>
+        <v>96.72881220227745</v>
       </c>
       <c r="I15">
         <v>13</v>
@@ -838,25 +838,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>6294323.637750985</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1525598.158770532</v>
+        <v>54843.62853917486</v>
       </c>
       <c r="E16">
-        <v>922598.0729835747</v>
+        <v>2819.266967871285</v>
       </c>
       <c r="F16">
-        <v>230649.5182458937</v>
+        <v>704.8167419678211</v>
       </c>
       <c r="G16">
-        <v>2678845.75</v>
+        <v>21598.85533778835</v>
       </c>
       <c r="H16">
-        <v>120583.7553410794</v>
+        <v>290.9918015196703</v>
       </c>
       <c r="I16">
         <v>14</v>
@@ -867,25 +867,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>6250851.851892015</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>43471.78585896989</v>
       </c>
       <c r="D17">
-        <v>1329000.426442408</v>
+        <v>47776.14950384555</v>
       </c>
       <c r="E17">
-        <v>1079876.258846073</v>
+        <v>8473.250196134732</v>
       </c>
       <c r="F17">
-        <v>269969.0647115184</v>
+        <v>2118.312549033683</v>
       </c>
       <c r="G17">
-        <v>2678845.75</v>
+        <v>58367.71224901453</v>
       </c>
       <c r="H17">
-        <v>149922.1868598309</v>
+        <v>458.1308822790838</v>
       </c>
       <c r="I17">
         <v>15</v>
@@ -896,25 +896,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>6082755.416822709</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1157737.457488481</v>
+        <v>253539.3903816155</v>
       </c>
       <c r="E18">
-        <v>1216886.634009215</v>
+        <v>13117.23423654065</v>
       </c>
       <c r="F18">
-        <v>304221.6585023038</v>
+        <v>3279.308559135163</v>
       </c>
       <c r="G18">
-        <v>2678845.75</v>
+        <v>101839.4981079847</v>
       </c>
       <c r="H18">
-        <v>175479.8920624869</v>
+        <v>1376.903156871894</v>
       </c>
       <c r="I18">
         <v>16</v>
@@ -925,25 +925,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>5888542.537240993</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>194212.8795817161</v>
       </c>
       <c r="D19">
-        <v>1008544.46229177</v>
+        <v>220866.7833006982</v>
       </c>
       <c r="E19">
-        <v>1336241.030166584</v>
+        <v>39255.31990127447</v>
       </c>
       <c r="F19">
-        <v>334060.257541646</v>
+        <v>9813.829975318617</v>
       </c>
       <c r="G19">
-        <v>2678845.75</v>
+        <v>269935.9331772905</v>
       </c>
       <c r="H19">
-        <v>197744.0780264975</v>
+        <v>2131.550563437856</v>
       </c>
       <c r="I19">
         <v>17</v>
@@ -954,25 +954,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>5220913.494530735</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>878577.3716140791</v>
+        <v>1061070.149690331</v>
       </c>
       <c r="E20">
-        <v>1440214.702708737</v>
+        <v>56566.16462314687</v>
       </c>
       <c r="F20">
-        <v>360053.6756771842</v>
+        <v>14141.54115578672</v>
       </c>
       <c r="G20">
-        <v>2678845.75</v>
+        <v>464148.8127590064</v>
       </c>
       <c r="H20">
-        <v>217139.1674020699</v>
+        <v>6378.989483957101</v>
       </c>
       <c r="I20">
         <v>18</v>
@@ -983,25 +983,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>4523287.224598764</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>697626.2699319711</v>
       </c>
       <c r="D21">
-        <v>765358.620043659</v>
+        <v>924334.2837803368</v>
       </c>
       <c r="E21">
-        <v>1530789.703965073</v>
+        <v>165954.8573511423</v>
       </c>
       <c r="F21">
-        <v>382697.4259912682</v>
+        <v>41488.71433778557</v>
       </c>
       <c r="G21">
-        <v>2678845.75</v>
+        <v>1131777.855469265</v>
       </c>
       <c r="H21">
-        <v>234034.8891901698</v>
+        <v>9192.001751261367</v>
       </c>
       <c r="I21">
         <v>19</v>
@@ -1012,25 +1012,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>2946637.994522575</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>666729.9161131128</v>
+        <v>3165296.067568534</v>
       </c>
       <c r="E22">
-        <v>1609692.66710951</v>
+        <v>192605.8303271122</v>
       </c>
       <c r="F22">
-        <v>402423.1667773774</v>
+        <v>48151.45758177806</v>
       </c>
       <c r="G22">
-        <v>2678845.75</v>
+        <v>1829404.125401235</v>
       </c>
       <c r="H22">
-        <v>248753.3268943243</v>
+        <v>26967.66431956062</v>
       </c>
       <c r="I22">
         <v>20</v>
@@ -1041,25 +1041,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1772083.004488584</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1174554.990033991</v>
       </c>
       <c r="D23">
-        <v>580811.0987432804</v>
+        <v>2757397.024525247</v>
       </c>
       <c r="E23">
-        <v>1678427.721005376</v>
+        <v>518925.0647617415</v>
       </c>
       <c r="F23">
-        <v>419606.9302513439</v>
+        <v>129731.2661904354</v>
       </c>
       <c r="G23">
-        <v>2678845.75</v>
+        <v>3406053.355477424</v>
       </c>
       <c r="H23">
-        <v>261575.0584052953</v>
+        <v>31298.44742815574</v>
       </c>
       <c r="I23">
         <v>21</v>
@@ -1070,25 +1070,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>704171.0970232752</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>505964.2956926289</v>
+        <v>5037337.070538723</v>
       </c>
       <c r="E24">
-        <v>1738305.163445897</v>
+        <v>488946.5459504012</v>
       </c>
       <c r="F24">
-        <v>434576.2908614743</v>
+        <v>122236.6364876003</v>
       </c>
       <c r="G24">
-        <v>2678845.75</v>
+        <v>4580608.345511416</v>
       </c>
       <c r="H24">
-        <v>272744.5046633736</v>
+        <v>84325.323023783</v>
       </c>
       <c r="I24">
         <v>22</v>
@@ -1099,25 +1099,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>257475.7390267292</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>446695.357996546</v>
       </c>
       <c r="D25">
-        <v>440762.7007639025</v>
+        <v>4388195.59160668</v>
       </c>
       <c r="E25">
-        <v>1790466.439388878</v>
+        <v>1008259.729096036</v>
       </c>
       <c r="F25">
-        <v>447616.6098472195</v>
+        <v>252064.9322740089</v>
       </c>
       <c r="G25">
-        <v>2678845.75</v>
+        <v>5648520.252976725</v>
       </c>
       <c r="H25">
-        <v>282474.5890599583</v>
+        <v>79453.81371694019</v>
       </c>
       <c r="I25">
         <v>23</v>
@@ -1128,25 +1128,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>91504.74641211731</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>383963.3745672614</v>
+        <v>4810823.033388617</v>
       </c>
       <c r="E26">
-        <v>1835905.900346191</v>
+        <v>1160290.856159413</v>
       </c>
       <c r="F26">
-        <v>458976.4750865478</v>
+        <v>290072.7140398532</v>
       </c>
       <c r="G26">
-        <v>2678845.75</v>
+        <v>6095215.610973271</v>
       </c>
       <c r="H26">
-        <v>290950.7964006927</v>
+        <v>163842.2059781058</v>
       </c>
       <c r="I26">
         <v>24</v>
@@ -1157,25 +1157,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>36068.31892645982</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>55436.42748565751</v>
       </c>
       <c r="D27">
-        <v>334483.5503402767</v>
+        <v>4190871.51236796</v>
       </c>
       <c r="E27">
-        <v>1875489.759727779</v>
+        <v>1656252.072975939</v>
       </c>
       <c r="F27">
-        <v>468872.4399319447</v>
+        <v>414063.0182439848</v>
       </c>
       <c r="G27">
-        <v>2678845.75</v>
+        <v>6261186.603587883</v>
       </c>
       <c r="H27">
-        <v>298334.7088062561</v>
+        <v>188547.2641259046</v>
       </c>
       <c r="I27">
         <v>25</v>
@@ -1186,25 +1186,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>16506.1961687579</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>291379.9931421266</v>
+        <v>3806528.915536088</v>
       </c>
       <c r="E28">
-        <v>1909972.605486299</v>
+        <v>2023724.990636123</v>
       </c>
       <c r="F28">
-        <v>477493.1513715747</v>
+        <v>505931.2476590307</v>
       </c>
       <c r="G28">
-        <v>2678845.75</v>
+        <v>6316623.03107354</v>
       </c>
       <c r="H28">
-        <v>304767.0859557641</v>
+        <v>269140.9618585901</v>
       </c>
       <c r="I28">
         <v>26</v>
@@ -1215,25 +1215,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>8593.79375029153</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>7912.402418466364</v>
       </c>
       <c r="D29">
-        <v>253831.0189458732</v>
+        <v>3315996.760306615</v>
       </c>
       <c r="E29">
-        <v>1940011.784843301</v>
+        <v>2416150.714819701</v>
       </c>
       <c r="F29">
-        <v>485002.9462108253</v>
+        <v>604037.6787049253</v>
       </c>
       <c r="G29">
-        <v>2678845.75</v>
+        <v>6336185.153831242</v>
       </c>
       <c r="H29">
-        <v>310370.5483915236</v>
+        <v>328855.31097837</v>
       </c>
       <c r="I29">
         <v>27</v>
@@ -1244,25 +1244,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>4983.131125689103</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>221120.8308583943</v>
+        <v>2915361.866201557</v>
       </c>
       <c r="E30">
-        <v>1966179.935313284</v>
+        <v>2745877.082138203</v>
       </c>
       <c r="F30">
-        <v>491544.9838283211</v>
+        <v>686469.2705345507</v>
       </c>
       <c r="G30">
-        <v>2678845.75</v>
+        <v>6344097.556249708</v>
       </c>
       <c r="H30">
-        <v>315251.9150370365</v>
+        <v>392624.4911582015</v>
       </c>
       <c r="I30">
         <v>28</v>
@@ -1273,25 +1273,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>3153.653865394874</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1829.477260294228</v>
       </c>
       <c r="D31">
-        <v>192625.8738689965</v>
+        <v>2539670.843951627</v>
       </c>
       <c r="E31">
-        <v>1988975.900904803</v>
+        <v>3046429.899938147</v>
       </c>
       <c r="F31">
-        <v>497243.9752262008</v>
+        <v>761607.4749845368</v>
       </c>
       <c r="G31">
-        <v>2678845.75</v>
+        <v>6347708.21887431</v>
       </c>
       <c r="H31">
-        <v>319504.2394884087</v>
+        <v>446205.0258474579</v>
       </c>
       <c r="I31">
         <v>29</v>
@@ -1302,25 +1302,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>2142.914612950391</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>167802.9480069944</v>
+        <v>2219336.830054891</v>
       </c>
       <c r="E32">
-        <v>2008834.241594405</v>
+        <v>3304969.284265726</v>
       </c>
       <c r="F32">
-        <v>502208.5603986012</v>
+        <v>826242.3210664315</v>
       </c>
       <c r="G32">
-        <v>2678845.75</v>
+        <v>6349537.696134605</v>
       </c>
       <c r="H32">
-        <v>323208.5838970305</v>
+        <v>495044.8587399489</v>
       </c>
       <c r="I32">
         <v>30</v>
@@ -1331,25 +1331,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1544.006331447481</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>598.90828150291</v>
       </c>
       <c r="D33">
-        <v>146178.853309125</v>
+        <v>1933339.770113038</v>
       </c>
       <c r="E33">
-        <v>2026133.5173527</v>
+        <v>3533766.93221921</v>
       </c>
       <c r="F33">
-        <v>506533.3793381751</v>
+        <v>883441.7330548024</v>
       </c>
       <c r="G33">
-        <v>2678845.75</v>
+        <v>6350548.435387049</v>
       </c>
       <c r="H33">
-        <v>326435.5642590908</v>
+        <v>537057.5086931805</v>
       </c>
       <c r="I33">
         <v>31</v>
@@ -1360,25 +1360,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1167.720217284553</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34">
-        <v>127341.3691985913</v>
+        <v>1686656.308178567</v>
       </c>
       <c r="E34">
-        <v>2041203.504641127</v>
+        <v>3731893.857283318</v>
       </c>
       <c r="F34">
-        <v>510300.8761602818</v>
+        <v>932973.4643208296</v>
       </c>
       <c r="G34">
-        <v>2678845.75</v>
+        <v>6351147.343668552</v>
       </c>
       <c r="H34">
-        <v>329246.6965698138</v>
+        <v>574237.1264856216</v>
       </c>
       <c r="I34">
         <v>32</v>
@@ -1389,25 +1389,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>919.6939793127506</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>248.0262379718025</v>
       </c>
       <c r="D35">
-        <v>110931.3963154456</v>
+        <v>1469303.656368828</v>
       </c>
       <c r="E35">
-        <v>2054331.482947643</v>
+        <v>3905775.97873111</v>
       </c>
       <c r="F35">
-        <v>513582.8707369108</v>
+        <v>976443.9946827774</v>
       </c>
       <c r="G35">
-        <v>2678845.75</v>
+        <v>6351523.629782715</v>
       </c>
       <c r="H35">
-        <v>331695.5695041831</v>
+        <v>606432.7518085393</v>
       </c>
       <c r="I35">
         <v>33</v>
@@ -1418,25 +1418,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>749.4253955970053</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>96636.11099785942</v>
+        <v>1281034.757838621</v>
       </c>
       <c r="E36">
-        <v>2065767.711201712</v>
+        <v>4056725.733412626</v>
       </c>
       <c r="F36">
-        <v>516441.9278004281</v>
+        <v>1014181.433353156</v>
       </c>
       <c r="G36">
-        <v>2678845.75</v>
+        <v>6351771.656020687</v>
       </c>
       <c r="H36">
-        <v>333828.8659789921</v>
+        <v>634688.5965438053</v>
       </c>
       <c r="I36">
         <v>34</v>
@@ -1447,25 +1447,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>628.5267178840736</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>120.8986777129315</v>
       </c>
       <c r="D37">
-        <v>84183.00191800926</v>
+        <v>1115952.932734989</v>
       </c>
       <c r="E37">
-        <v>2075730.198465592</v>
+        <v>4188791.19349553</v>
       </c>
       <c r="F37">
-        <v>518932.5496163981</v>
+        <v>1047197.798373883</v>
       </c>
       <c r="G37">
-        <v>2678845.75</v>
+        <v>6351941.924604403</v>
       </c>
       <c r="H37">
-        <v>335687.2530702783</v>
+        <v>659217.9316795517</v>
       </c>
       <c r="I37">
         <v>35</v>
@@ -1476,25 +1476,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>540.1644057550124</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>73334.67519284307</v>
+        <v>972688.5145767028</v>
       </c>
       <c r="E38">
-        <v>2084408.859845726</v>
+        <v>4303570.136814034</v>
       </c>
       <c r="F38">
-        <v>521102.2149614314</v>
+        <v>1075892.534203508</v>
       </c>
       <c r="G38">
-        <v>2678845.75</v>
+        <v>6352062.823282115</v>
       </c>
       <c r="H38">
-        <v>337306.1572506588</v>
+        <v>680678.5689430237</v>
       </c>
       <c r="I38">
         <v>36</v>
@@ -1505,25 +1505,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>473.9988473151489</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>66.1655584398635</v>
       </c>
       <c r="D39">
-        <v>63884.32893944216</v>
+        <v>847342.0364572614</v>
       </c>
       <c r="E39">
-        <v>2091969.136848446</v>
+        <v>4403847.319309587</v>
       </c>
       <c r="F39">
-        <v>522992.2842121116</v>
+        <v>1100961.829827397</v>
       </c>
       <c r="G39">
-        <v>2678845.75</v>
+        <v>6352151.185594245</v>
       </c>
       <c r="H39">
-        <v>338716.4397249304</v>
+        <v>699330.1472322805</v>
       </c>
       <c r="I39">
         <v>37</v>
@@ -1534,25 +1534,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>423.4058080308445</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>55651.81100633201</v>
+        <v>738454.3997259369</v>
       </c>
       <c r="E40">
-        <v>2098555.151194935</v>
+        <v>4491050.835572827</v>
       </c>
       <c r="F40">
-        <v>524638.7877987337</v>
+        <v>1122762.708893207</v>
       </c>
       <c r="G40">
-        <v>2678845.75</v>
+        <v>6352217.351152685</v>
       </c>
       <c r="H40">
-        <v>339944.9847378726</v>
+        <v>715625.1893878079</v>
       </c>
       <c r="I40">
         <v>38</v>
@@ -1563,25 +1563,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>384.0315189827995</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>39.3742890480448</v>
       </c>
       <c r="D41">
-        <v>48480.18472919</v>
+        <v>643292.7350508542</v>
       </c>
       <c r="E41">
-        <v>2104292.452216648</v>
+        <v>4567180.167312892</v>
       </c>
       <c r="F41">
-        <v>526073.1130541619</v>
+        <v>1141795.041828223</v>
       </c>
       <c r="G41">
-        <v>2678845.75</v>
+        <v>6352267.944191969</v>
       </c>
       <c r="H41">
-        <v>341015.2120691769</v>
+        <v>729795.7607805844</v>
       </c>
       <c r="I41">
         <v>39</v>
@@ -1592,25 +1592,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>352.913943508613</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>42232.73724387821</v>
+        <v>560579.8921810609</v>
       </c>
       <c r="E42">
-        <v>2109290.410204898</v>
+        <v>4633406.835100344</v>
       </c>
       <c r="F42">
-        <v>527322.6025512244</v>
+        <v>1158351.708775086</v>
       </c>
       <c r="G42">
-        <v>2678845.75</v>
+        <v>6352307.318481017</v>
       </c>
       <c r="H42">
-        <v>341947.5234852053</v>
+        <v>742166.777188345</v>
       </c>
       <c r="I42">
         <v>40</v>
@@ -1621,25 +1621,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>328.0002243302051</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>24.91371917840791</v>
       </c>
       <c r="D43">
-        <v>36790.3733262086</v>
+        <v>488340.2037952563</v>
       </c>
       <c r="E43">
-        <v>2113644.301339033</v>
+        <v>4691198.585808988</v>
       </c>
       <c r="F43">
-        <v>528411.0753347583</v>
+        <v>1172799.646452247</v>
       </c>
       <c r="G43">
-        <v>2678845.75</v>
+        <v>6352338.436056491</v>
       </c>
       <c r="H43">
-        <v>342759.6916582959</v>
+        <v>752928.610703806</v>
       </c>
       <c r="I43">
         <v>41</v>
@@ -1650,25 +1650,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>307.8253067743839</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>32049.3450771534</v>
+        <v>425528.9995412677</v>
       </c>
       <c r="E44">
-        <v>2117437.123938277</v>
+        <v>4741483.620121566</v>
       </c>
       <c r="F44">
-        <v>529359.2809845693</v>
+        <v>1185370.905030391</v>
       </c>
       <c r="G44">
-        <v>2678845.75</v>
+        <v>6352363.349775669</v>
       </c>
       <c r="H44">
-        <v>343467.1989675929</v>
+        <v>762319.7701939605</v>
       </c>
       <c r="I44">
         <v>42</v>
@@ -1679,25 +1679,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>291.3297980070408</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>16.49550876734314</v>
       </c>
       <c r="D45">
-        <v>27919.27417444095</v>
+        <v>370692.7794863827</v>
       </c>
       <c r="E45">
-        <v>2120741.180660447</v>
+        <v>4785352.596165474</v>
       </c>
       <c r="F45">
-        <v>530185.2951651118</v>
+        <v>1196338.149041368</v>
       </c>
       <c r="G45">
-        <v>2678845.75</v>
+        <v>6352383.524693226</v>
       </c>
       <c r="H45">
-        <v>344083.5326399701</v>
+        <v>770491.0882697544</v>
       </c>
       <c r="I45">
         <v>43</v>
@@ -1708,25 +1708,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>277.7277472687484</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46">
-        <v>24321.42898867745</v>
+        <v>323002.8979296609</v>
       </c>
       <c r="E46">
-        <v>2123619.456809058</v>
+        <v>4823528.579458456</v>
       </c>
       <c r="F46">
-        <v>530904.8642022645</v>
+        <v>1205882.144864614</v>
       </c>
       <c r="G46">
-        <v>2678845.75</v>
+        <v>6352400.020201992</v>
       </c>
       <c r="H46">
-        <v>344620.4418573226</v>
+        <v>777619.7968768895</v>
       </c>
       <c r="I46">
         <v>44</v>
@@ -1737,25 +1737,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>266.4308827102923</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>11.29686455845612</v>
       </c>
       <c r="D47">
-        <v>21187.22372062254</v>
+        <v>281378.8064850573</v>
       </c>
       <c r="E47">
-        <v>2126126.821023502</v>
+        <v>4856827.852614139</v>
       </c>
       <c r="F47">
-        <v>531531.7052558755</v>
+        <v>1214206.963153535</v>
       </c>
       <c r="G47">
-        <v>2678845.75</v>
+        <v>6352413.622252731</v>
       </c>
       <c r="H47">
-        <v>345088.1617314719</v>
+        <v>783823.3941619991</v>
       </c>
       <c r="I47">
         <v>45</v>
@@ -1766,25 +1766,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>256.9886500856697</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48">
-        <v>18456.91094864079</v>
+        <v>245173.7499356657</v>
       </c>
       <c r="E48">
-        <v>2128311.071241087</v>
+        <v>4885808.489131398</v>
       </c>
       <c r="F48">
-        <v>532077.7678102718</v>
+        <v>1221452.12228285</v>
       </c>
       <c r="G48">
-        <v>2678845.75</v>
+        <v>6352424.91911729</v>
       </c>
       <c r="H48">
-        <v>345495.6084163191</v>
+        <v>789234.5260497977</v>
       </c>
       <c r="I48">
         <v>46</v>
@@ -1795,25 +1795,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>249.0541394902625</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>7.934510595407194</v>
       </c>
       <c r="D49">
-        <v>16078.44266233325</v>
+        <v>213579.1894764563</v>
       </c>
       <c r="E49">
-        <v>2130213.845870133</v>
+        <v>4911084.137498766</v>
       </c>
       <c r="F49">
-        <v>532553.4614675334</v>
+        <v>1227771.034374692</v>
       </c>
       <c r="G49">
-        <v>2678845.75</v>
+        <v>6352434.361349914</v>
       </c>
       <c r="H49">
-        <v>345850.5490766767</v>
+        <v>793943.8794838523</v>
       </c>
       <c r="I49">
         <v>47</v>
@@ -1824,25 +1824,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>242.3545705873175</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50">
-        <v>14006.47807020901</v>
+        <v>186095.0326961245</v>
       </c>
       <c r="E50">
-        <v>2131871.417543833</v>
+        <v>4933083.17018663</v>
       </c>
       <c r="F50">
-        <v>532967.8543859583</v>
+        <v>1233270.792546658</v>
       </c>
       <c r="G50">
-        <v>2678845.75</v>
+        <v>6352442.295860509</v>
       </c>
       <c r="H50">
-        <v>346159.7499538967</v>
+        <v>798051.1723435496</v>
       </c>
       <c r="I50">
         <v>48</v>
@@ -1853,25 +1853,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>236.6749643539687</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>5.679606233348904</v>
       </c>
       <c r="D51">
-        <v>12201.51926721346</v>
+        <v>162113.7102127057</v>
       </c>
       <c r="E51">
-        <v>2133315.384586229</v>
+        <v>4952268.228173366</v>
       </c>
       <c r="F51">
-        <v>533328.8461465572</v>
+        <v>1238067.057043341</v>
       </c>
       <c r="G51">
-        <v>2678845.75</v>
+        <v>6352448.995429412</v>
       </c>
       <c r="H51">
-        <v>346429.1053508729</v>
+        <v>801626.0151553275</v>
       </c>
       <c r="I51">
         <v>49</v>
@@ -1882,25 +1882,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>231.8425633336233</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>10629.15828532473</v>
+        <v>141250.7651570821</v>
       </c>
       <c r="E52">
-        <v>2134573.27337174</v>
+        <v>4968966.993823667</v>
       </c>
       <c r="F52">
-        <v>533643.3183429351</v>
+        <v>1242241.748455917</v>
       </c>
       <c r="G52">
-        <v>2678845.75</v>
+        <v>6352454.675035645</v>
       </c>
       <c r="H52">
-        <v>346663.7499952622</v>
+        <v>804743.587078172</v>
       </c>
       <c r="I52">
         <v>50</v>

--- a/Second part/covidsim.xlsx
+++ b/Second part/covidsim.xlsx
@@ -432,7 +432,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6352690.35</v>
+        <v>2678844.75</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6352689.550000126</v>
+        <v>2678838.450002352</v>
       </c>
       <c r="C3">
-        <v>0.799999874069122</v>
+        <v>6.299997648240852</v>
       </c>
       <c r="D3">
         <v>0.871134</v>
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.07938145600000002</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -490,25 +490,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6352686.350002599</v>
+        <v>2678813.250250903</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.758871941207106</v>
+        <v>32.25862531718494</v>
       </c>
       <c r="E4">
-        <v>0.192900367228444</v>
+        <v>0.1928990238183441</v>
       </c>
       <c r="F4">
-        <v>0.048225091807111</v>
+        <v>0.04822475595458604</v>
       </c>
       <c r="G4">
-        <v>1.799999874085188</v>
+        <v>7.299997648224235</v>
       </c>
       <c r="H4">
-        <v>0.01675258</v>
+        <v>0.148533341291104</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -519,25 +519,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6352682.542908044</v>
+        <v>2678610.023376983</v>
       </c>
       <c r="C5">
-        <v>3.807094556522632</v>
+        <v>203.2268739204904</v>
       </c>
       <c r="D5">
-        <v>4.145615149631512</v>
+        <v>28.10158530706058</v>
       </c>
       <c r="E5">
-        <v>0.6835058004889202</v>
+        <v>3.518531031917828</v>
       </c>
       <c r="F5">
-        <v>0.17087645012223</v>
+        <v>0.8796327579794569</v>
       </c>
       <c r="G5">
-        <v>4.999997400678694</v>
+        <v>32.49974909704179</v>
       </c>
       <c r="H5">
-        <v>0.03134630967462215</v>
+        <v>2.709268894576728</v>
       </c>
       <c r="I5">
         <v>3</v>
@@ -548,25 +548,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6352667.314574885</v>
+        <v>2677797.364738652</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>22.64681662547201</v>
+        <v>1040.367661820587</v>
       </c>
       <c r="E6">
-        <v>1.110886790970173</v>
+        <v>6.414079622481377</v>
       </c>
       <c r="F6">
-        <v>0.2777216977425432</v>
+        <v>1.603519905620344</v>
       </c>
       <c r="G6">
-        <v>8.807091956026852</v>
+        <v>235.7266230173409</v>
       </c>
       <c r="H6">
-        <v>0.1110696925794495</v>
+        <v>4.940013652159404</v>
       </c>
       <c r="I6">
         <v>4</v>
@@ -577,25 +577,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6352649.197190133</v>
+        <v>2671245.613547285</v>
       </c>
       <c r="C7">
-        <v>18.11738475294345</v>
+        <v>6551.751191366514</v>
       </c>
       <c r="D7">
-        <v>19.72841195421394</v>
+        <v>906.2996427124148</v>
       </c>
       <c r="E7">
-        <v>3.445610527976635</v>
+        <v>113.6684949090188</v>
       </c>
       <c r="F7">
-        <v>0.8614026319941587</v>
+        <v>28.41712372725469</v>
       </c>
       <c r="G7">
-        <v>24.03542511444539</v>
+        <v>1048.385261348449</v>
       </c>
       <c r="H7">
-        <v>0.1805191035326531</v>
+        <v>87.52474107994445</v>
       </c>
       <c r="I7">
         <v>5</v>
@@ -606,25 +606,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6352576.72867392</v>
+        <v>2645295.522835042</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>107.7720525026427</v>
+        <v>33293.31764562563</v>
       </c>
       <c r="E8">
-        <v>5.479418861440471</v>
+        <v>205.5276154658907</v>
       </c>
       <c r="F8">
-        <v>1.369854715360118</v>
+        <v>51.38190386647268</v>
       </c>
       <c r="G8">
-        <v>42.15280986670405</v>
+        <v>7600.136452714913</v>
       </c>
       <c r="H8">
-        <v>0.5599117107962032</v>
+        <v>159.4681262907357</v>
       </c>
       <c r="I8">
         <v>6</v>
@@ -635,25 +635,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6352490.512587539</v>
+        <v>2438174.532803317</v>
       </c>
       <c r="C9">
-        <v>86.21608638105322</v>
+        <v>207120.9900317253</v>
       </c>
       <c r="D9">
-        <v>93.88389918483716</v>
+        <v>29002.94097390444</v>
       </c>
       <c r="E9">
-        <v>16.58994151568492</v>
+        <v>3637.828952842845</v>
       </c>
       <c r="F9">
-        <v>4.147485378921229</v>
+        <v>909.4572382107112</v>
       </c>
       <c r="G9">
-        <v>114.6213260795921</v>
+        <v>33550.22716495767</v>
       </c>
       <c r="H9">
-        <v>0.8904055649840765</v>
+        <v>2801.128293688991</v>
       </c>
       <c r="I9">
         <v>7</v>
@@ -664,25 +664,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6352145.671413617</v>
+        <v>1821593.798410963</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>512.8441112129887</v>
+        <v>850609.1898334008</v>
       </c>
       <c r="E10">
-        <v>26.26758013553027</v>
+        <v>5314.20940450875</v>
       </c>
       <c r="F10">
-        <v>6.566895033882568</v>
+        <v>1328.552351127187</v>
       </c>
       <c r="G10">
-        <v>200.8374124607071</v>
+        <v>240671.2171966834</v>
       </c>
       <c r="H10">
-        <v>2.695865496298799</v>
+        <v>5103.423976479583</v>
       </c>
       <c r="I10">
         <v>8</v>
@@ -693,25 +693,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6351735.431366157</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>410.2400474597652</v>
+        <v>2168662.685807084</v>
       </c>
       <c r="D11">
-        <v>446.7559419774156</v>
+        <v>440993.9081771816</v>
       </c>
       <c r="E11">
-        <v>79.13811552398866</v>
+        <v>55351.32481258787</v>
       </c>
       <c r="F11">
-        <v>19.78452888099716</v>
+        <v>13837.83120314697</v>
       </c>
       <c r="G11">
-        <v>545.6785863824189</v>
+        <v>857251.9515890365</v>
       </c>
       <c r="H11">
-        <v>4.268481772023669</v>
+        <v>71614.5372174275</v>
       </c>
       <c r="I11">
         <v>9</v>
@@ -722,25 +722,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6350094.995789276</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2439.891529565515</v>
+        <v>2649111.867937323</v>
       </c>
       <c r="E12">
-        <v>125.1701449269209</v>
+        <v>23787.10565014157</v>
       </c>
       <c r="F12">
-        <v>31.29253623173022</v>
+        <v>5946.776412535393</v>
       </c>
       <c r="G12">
-        <v>955.9186338428408</v>
+        <v>2678845.75</v>
       </c>
       <c r="H12">
-        <v>12.85994377264816</v>
+        <v>77627.25862392764</v>
       </c>
       <c r="I12">
         <v>10</v>
@@ -751,25 +751,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6348143.880315402</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>1951.115473873935</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>2125.472467716525</v>
+        <v>2307731.417963712</v>
       </c>
       <c r="E13">
-        <v>376.7053944061126</v>
+        <v>296891.4656290305</v>
       </c>
       <c r="F13">
-        <v>94.17634860152816</v>
+        <v>74222.86640725764</v>
       </c>
       <c r="G13">
-        <v>2596.354210724123</v>
+        <v>2678845.75</v>
       </c>
       <c r="H13">
-        <v>20.34014855062464</v>
+        <v>228606.4285343535</v>
       </c>
       <c r="I13">
         <v>11</v>
@@ -780,25 +780,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6340351.277937627</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>11596.00427620061</v>
+        <v>2010343.3010564</v>
       </c>
       <c r="E14">
-        <v>595.254228937092</v>
+        <v>534801.9591548798</v>
       </c>
       <c r="F14">
-        <v>148.813557234273</v>
+        <v>133700.4897887199</v>
       </c>
       <c r="G14">
-        <v>4547.469684598036</v>
+        <v>2678845.75</v>
       </c>
       <c r="H14">
-        <v>61.2146265909933</v>
+        <v>411797.5085492575</v>
       </c>
       <c r="I14">
         <v>12</v>
@@ -809,25 +809,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6331092.494662211</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>9258.783275416487</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>10101.67358914374</v>
+        <v>1751278.401222466</v>
       </c>
       <c r="E15">
-        <v>1790.718778582586</v>
+        <v>742053.8790220272</v>
       </c>
       <c r="F15">
-        <v>447.6796946456465</v>
+        <v>185513.4697555068</v>
       </c>
       <c r="G15">
-        <v>12340.07206237223</v>
+        <v>2678845.75</v>
       </c>
       <c r="H15">
-        <v>96.72881220227745</v>
+        <v>571381.4868469608</v>
       </c>
       <c r="I15">
         <v>13</v>
@@ -838,25 +838,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6294323.637750985</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>54843.62853917486</v>
+        <v>1525598.158770532</v>
       </c>
       <c r="E16">
-        <v>2819.266967871285</v>
+        <v>922598.0729835747</v>
       </c>
       <c r="F16">
-        <v>704.8167419678211</v>
+        <v>230649.5182458937</v>
       </c>
       <c r="G16">
-        <v>21598.85533778835</v>
+        <v>2678845.75</v>
       </c>
       <c r="H16">
-        <v>290.9918015196703</v>
+        <v>710400.5161973526</v>
       </c>
       <c r="I16">
         <v>14</v>
@@ -867,25 +867,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6250851.851892015</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>43471.78585896989</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>47776.14950384555</v>
+        <v>1329000.426442408</v>
       </c>
       <c r="E17">
-        <v>8473.250196134732</v>
+        <v>1079876.258846073</v>
       </c>
       <c r="F17">
-        <v>2118.312549033683</v>
+        <v>269969.0647115184</v>
       </c>
       <c r="G17">
-        <v>58367.71224901453</v>
+        <v>2678845.75</v>
       </c>
       <c r="H17">
-        <v>458.1308822790838</v>
+        <v>831504.7193114766</v>
       </c>
       <c r="I17">
         <v>15</v>
@@ -896,25 +896,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6082755.416822709</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>253539.3903816155</v>
+        <v>1157737.457488481</v>
       </c>
       <c r="E18">
-        <v>13117.23423654065</v>
+        <v>1216886.634009215</v>
       </c>
       <c r="F18">
-        <v>3279.308559135163</v>
+        <v>304221.6585023038</v>
       </c>
       <c r="G18">
-        <v>101839.4981079847</v>
+        <v>2678845.75</v>
       </c>
       <c r="H18">
-        <v>1376.903156871894</v>
+        <v>937002.7081870958</v>
       </c>
       <c r="I18">
         <v>16</v>
@@ -925,25 +925,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5888542.537240993</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>194212.8795817161</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>220866.7833006982</v>
+        <v>1008544.46229177</v>
       </c>
       <c r="E19">
-        <v>39255.31990127447</v>
+        <v>1336241.030166584</v>
       </c>
       <c r="F19">
-        <v>9813.829975318617</v>
+        <v>334060.257541646</v>
       </c>
       <c r="G19">
-        <v>269935.9331772905</v>
+        <v>2678845.75</v>
       </c>
       <c r="H19">
-        <v>2131.550563437856</v>
+        <v>1028905.59322827</v>
       </c>
       <c r="I19">
         <v>17</v>
@@ -954,25 +954,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5220913.494530735</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1061070.149690331</v>
+        <v>878577.3716140791</v>
       </c>
       <c r="E20">
-        <v>56566.16462314687</v>
+        <v>1440214.702708737</v>
       </c>
       <c r="F20">
-        <v>14141.54115578672</v>
+        <v>360053.6756771842</v>
       </c>
       <c r="G20">
-        <v>464148.8127590064</v>
+        <v>2678845.75</v>
       </c>
       <c r="H20">
-        <v>6378.989483957101</v>
+        <v>1108965.321085728</v>
       </c>
       <c r="I20">
         <v>18</v>
@@ -983,25 +983,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4523287.224598764</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>697626.2699319711</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>924334.2837803368</v>
+        <v>765358.620043659</v>
       </c>
       <c r="E21">
-        <v>165954.8573511423</v>
+        <v>1530789.703965073</v>
       </c>
       <c r="F21">
-        <v>41488.71433778557</v>
+        <v>382697.4259912682</v>
       </c>
       <c r="G21">
-        <v>1131777.855469265</v>
+        <v>2678845.75</v>
       </c>
       <c r="H21">
-        <v>9192.001751261367</v>
+        <v>1178708.072053106</v>
       </c>
       <c r="I21">
         <v>19</v>
@@ -1012,25 +1012,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2946637.994522575</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3165296.067568534</v>
+        <v>666729.9161131128</v>
       </c>
       <c r="E22">
-        <v>192605.8303271122</v>
+        <v>1609692.66710951</v>
       </c>
       <c r="F22">
-        <v>48151.45758177806</v>
+        <v>402423.1667773774</v>
       </c>
       <c r="G22">
-        <v>1829404.125401235</v>
+        <v>2678845.75</v>
       </c>
       <c r="H22">
-        <v>26967.66431956062</v>
+        <v>1239463.353674323</v>
       </c>
       <c r="I22">
         <v>20</v>
@@ -1041,25 +1041,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1772083.004488584</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>1174554.990033991</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>2757397.024525247</v>
+        <v>580811.0987432804</v>
       </c>
       <c r="E23">
-        <v>518925.0647617415</v>
+        <v>1678427.721005376</v>
       </c>
       <c r="F23">
-        <v>129731.2661904354</v>
+        <v>419606.9302513439</v>
       </c>
       <c r="G23">
-        <v>3406053.355477424</v>
+        <v>2678845.75</v>
       </c>
       <c r="H23">
-        <v>31298.44742815574</v>
+        <v>1292389.345174139</v>
       </c>
       <c r="I23">
         <v>21</v>
@@ -1070,25 +1070,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>704171.0970232752</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5037337.070538723</v>
+        <v>505964.2956926289</v>
       </c>
       <c r="E24">
-        <v>488946.5459504012</v>
+        <v>1738305.163445897</v>
       </c>
       <c r="F24">
-        <v>122236.6364876003</v>
+        <v>434576.2908614743</v>
       </c>
       <c r="G24">
-        <v>4580608.345511416</v>
+        <v>2678845.75</v>
       </c>
       <c r="H24">
-        <v>84325.323023783</v>
+        <v>1338494.975853341</v>
       </c>
       <c r="I24">
         <v>22</v>
@@ -1099,25 +1099,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>257475.7390267292</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>446695.357996546</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>4388195.59160668</v>
+        <v>440762.7007639025</v>
       </c>
       <c r="E25">
-        <v>1008259.729096036</v>
+        <v>1790466.439388878</v>
       </c>
       <c r="F25">
-        <v>252064.9322740089</v>
+        <v>447616.6098472195</v>
       </c>
       <c r="G25">
-        <v>5648520.252976725</v>
+        <v>2678845.75</v>
       </c>
       <c r="H25">
-        <v>79453.81371694019</v>
+        <v>1378659.158329436</v>
       </c>
       <c r="I25">
         <v>23</v>
@@ -1128,25 +1128,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>91504.74641211731</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>4810823.033388617</v>
+        <v>383963.3745672614</v>
       </c>
       <c r="E26">
-        <v>1160290.856159413</v>
+        <v>1835905.900346191</v>
       </c>
       <c r="F26">
-        <v>290072.7140398532</v>
+        <v>458976.4750865478</v>
       </c>
       <c r="G26">
-        <v>6095215.610973271</v>
+        <v>2678845.75</v>
       </c>
       <c r="H26">
-        <v>163842.2059781058</v>
+        <v>1413647.543266567</v>
       </c>
       <c r="I26">
         <v>24</v>
@@ -1157,25 +1157,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>36068.31892645982</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>55436.42748565751</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>4190871.51236796</v>
+        <v>334483.5503402767</v>
       </c>
       <c r="E27">
-        <v>1656252.072975939</v>
+        <v>1875489.759727779</v>
       </c>
       <c r="F27">
-        <v>414063.0182439848</v>
+        <v>468872.4399319447</v>
       </c>
       <c r="G27">
-        <v>6261186.603587883</v>
+        <v>2678845.75</v>
       </c>
       <c r="H27">
-        <v>188547.2641259046</v>
+        <v>1444127.11499039</v>
       </c>
       <c r="I27">
         <v>25</v>
@@ -1186,25 +1186,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>16506.1961687579</v>
+        <v>0</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>3806528.915536088</v>
+        <v>291379.9931421266</v>
       </c>
       <c r="E28">
-        <v>2023724.990636123</v>
+        <v>1909972.605486299</v>
       </c>
       <c r="F28">
-        <v>505931.2476590307</v>
+        <v>477493.1513715747</v>
       </c>
       <c r="G28">
-        <v>6316623.03107354</v>
+        <v>2678845.75</v>
       </c>
       <c r="H28">
-        <v>269140.9618585901</v>
+        <v>1470678.90622445</v>
       </c>
       <c r="I28">
         <v>26</v>
@@ -1215,25 +1215,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>8593.79375029153</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>7912.402418466364</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>3315996.760306615</v>
+        <v>253831.0189458732</v>
       </c>
       <c r="E29">
-        <v>2416150.714819701</v>
+        <v>1940011.784843301</v>
       </c>
       <c r="F29">
-        <v>604037.6787049253</v>
+        <v>485002.9462108253</v>
       </c>
       <c r="G29">
-        <v>6336185.153831242</v>
+        <v>2678845.75</v>
       </c>
       <c r="H29">
-        <v>328855.31097837</v>
+        <v>1493809.074329342</v>
       </c>
       <c r="I29">
         <v>27</v>
@@ -1244,25 +1244,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>4983.131125689103</v>
+        <v>0</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>2915361.866201557</v>
+        <v>221120.8308583943</v>
       </c>
       <c r="E30">
-        <v>2745877.082138203</v>
+        <v>1966179.935313284</v>
       </c>
       <c r="F30">
-        <v>686469.2705345507</v>
+        <v>491544.9838283211</v>
       </c>
       <c r="G30">
-        <v>6344097.556249708</v>
+        <v>2678845.75</v>
       </c>
       <c r="H30">
-        <v>392624.4911582015</v>
+        <v>1513958.550191229</v>
       </c>
       <c r="I30">
         <v>28</v>
@@ -1273,25 +1273,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>3153.653865394874</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>1829.477260294228</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>2539670.843951627</v>
+        <v>192625.8738689965</v>
       </c>
       <c r="E31">
-        <v>3046429.899938147</v>
+        <v>1988975.900904803</v>
       </c>
       <c r="F31">
-        <v>761607.4749845368</v>
+        <v>497243.9752262008</v>
       </c>
       <c r="G31">
-        <v>6347708.21887431</v>
+        <v>2678845.75</v>
       </c>
       <c r="H31">
-        <v>446205.0258474579</v>
+        <v>1531511.443696698</v>
       </c>
       <c r="I31">
         <v>29</v>
@@ -1302,25 +1302,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>2142.914612950391</v>
+        <v>0</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>2219336.830054891</v>
+        <v>167802.9480069944</v>
       </c>
       <c r="E32">
-        <v>3304969.284265726</v>
+        <v>2008834.241594405</v>
       </c>
       <c r="F32">
-        <v>826242.3210664315</v>
+        <v>502208.5603986012</v>
       </c>
       <c r="G32">
-        <v>6349537.696134605</v>
+        <v>2678845.75</v>
       </c>
       <c r="H32">
-        <v>495044.8587399489</v>
+        <v>1546802.366027692</v>
       </c>
       <c r="I32">
         <v>30</v>
@@ -1331,25 +1331,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1544.006331447481</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>598.90828150291</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>1933339.770113038</v>
+        <v>146178.853309125</v>
       </c>
       <c r="E33">
-        <v>3533766.93221921</v>
+        <v>2026133.5173527</v>
       </c>
       <c r="F33">
-        <v>883441.7330548024</v>
+        <v>506533.3793381751</v>
       </c>
       <c r="G33">
-        <v>6350548.435387049</v>
+        <v>2678845.75</v>
       </c>
       <c r="H33">
-        <v>537057.5086931805</v>
+        <v>1560122.808361579</v>
       </c>
       <c r="I33">
         <v>31</v>
@@ -1360,25 +1360,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1167.720217284553</v>
+        <v>0</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34">
-        <v>1686656.308178567</v>
+        <v>127341.3691985913</v>
       </c>
       <c r="E34">
-        <v>3731893.857283318</v>
+        <v>2041203.504641127</v>
       </c>
       <c r="F34">
-        <v>932973.4643208296</v>
+        <v>510300.8761602818</v>
       </c>
       <c r="G34">
-        <v>6351147.343668552</v>
+        <v>2678845.75</v>
       </c>
       <c r="H34">
-        <v>574237.1264856216</v>
+        <v>1571726.698573668</v>
       </c>
       <c r="I34">
         <v>32</v>
@@ -1389,25 +1389,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>919.6939793127506</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>248.0262379718025</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>1469303.656368828</v>
+        <v>110931.3963154456</v>
       </c>
       <c r="E35">
-        <v>3905775.97873111</v>
+        <v>2054331.482947643</v>
       </c>
       <c r="F35">
-        <v>976443.9946827774</v>
+        <v>513582.8707369108</v>
       </c>
       <c r="G35">
-        <v>6351523.629782715</v>
+        <v>2678845.75</v>
       </c>
       <c r="H35">
-        <v>606432.7518085393</v>
+        <v>1581835.241869686</v>
       </c>
       <c r="I35">
         <v>33</v>
@@ -1418,25 +1418,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>749.4253955970053</v>
+        <v>0</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>1281034.757838621</v>
+        <v>96636.11099785942</v>
       </c>
       <c r="E36">
-        <v>4056725.733412626</v>
+        <v>2065767.711201712</v>
       </c>
       <c r="F36">
-        <v>1014181.433353156</v>
+        <v>516441.9278004281</v>
       </c>
       <c r="G36">
-        <v>6351771.656020687</v>
+        <v>2678845.75</v>
       </c>
       <c r="H36">
-        <v>634688.5965438053</v>
+        <v>1590641.137625318</v>
       </c>
       <c r="I36">
         <v>34</v>
@@ -1447,25 +1447,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>628.5267178840736</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>120.8986777129315</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>1115952.932734989</v>
+        <v>84183.00191800926</v>
       </c>
       <c r="E37">
-        <v>4188791.19349553</v>
+        <v>2075730.198465592</v>
       </c>
       <c r="F37">
-        <v>1047197.798373883</v>
+        <v>518932.5496163981</v>
       </c>
       <c r="G37">
-        <v>6351941.924604403</v>
+        <v>2678845.75</v>
       </c>
       <c r="H37">
-        <v>659217.9316795517</v>
+        <v>1598312.252818506</v>
       </c>
       <c r="I37">
         <v>35</v>
@@ -1476,25 +1476,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>540.1644057550124</v>
+        <v>0</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>972688.5145767028</v>
+        <v>73334.67519284307</v>
       </c>
       <c r="E38">
-        <v>4303570.136814034</v>
+        <v>2084408.859845726</v>
       </c>
       <c r="F38">
-        <v>1075892.534203508</v>
+        <v>521102.2149614314</v>
       </c>
       <c r="G38">
-        <v>6352062.823282115</v>
+        <v>2678845.75</v>
       </c>
       <c r="H38">
-        <v>680678.5689430237</v>
+        <v>1604994.822081208</v>
       </c>
       <c r="I38">
         <v>36</v>
@@ -1505,25 +1505,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>473.9988473151489</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>66.1655584398635</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>847342.0364572614</v>
+        <v>63884.32893944216</v>
       </c>
       <c r="E39">
-        <v>4403847.319309587</v>
+        <v>2091969.136848446</v>
       </c>
       <c r="F39">
-        <v>1100961.829827397</v>
+        <v>522992.2842121116</v>
       </c>
       <c r="G39">
-        <v>6352151.185594245</v>
+        <v>2678845.75</v>
       </c>
       <c r="H39">
-        <v>699330.1472322805</v>
+        <v>1610816.235373304</v>
       </c>
       <c r="I39">
         <v>37</v>
@@ -1534,25 +1534,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>423.4058080308445</v>
+        <v>0</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>738454.3997259369</v>
+        <v>55651.81100633201</v>
       </c>
       <c r="E40">
-        <v>4491050.835572827</v>
+        <v>2098555.151194935</v>
       </c>
       <c r="F40">
-        <v>1122762.708893207</v>
+        <v>524638.7877987337</v>
       </c>
       <c r="G40">
-        <v>6352217.351152685</v>
+        <v>2678845.75</v>
       </c>
       <c r="H40">
-        <v>715625.1893878079</v>
+        <v>1615887.4664201</v>
       </c>
       <c r="I40">
         <v>38</v>
@@ -1563,25 +1563,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>384.0315189827995</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>39.3742890480448</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>643292.7350508542</v>
+        <v>48480.18472919</v>
       </c>
       <c r="E41">
-        <v>4567180.167312892</v>
+        <v>2104292.452216648</v>
       </c>
       <c r="F41">
-        <v>1141795.041828223</v>
+        <v>526073.1130541619</v>
       </c>
       <c r="G41">
-        <v>6352267.944191969</v>
+        <v>2678845.75</v>
       </c>
       <c r="H41">
-        <v>729795.7607805844</v>
+        <v>1620305.188206819</v>
       </c>
       <c r="I41">
         <v>39</v>
@@ -1592,25 +1592,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>352.913943508613</v>
+        <v>0</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>560579.8921810609</v>
+        <v>42232.73724387821</v>
       </c>
       <c r="E42">
-        <v>4633406.835100344</v>
+        <v>2109290.410204898</v>
       </c>
       <c r="F42">
-        <v>1158351.708775086</v>
+        <v>527322.6025512244</v>
       </c>
       <c r="G42">
-        <v>6352307.318481017</v>
+        <v>2678845.75</v>
       </c>
       <c r="H42">
-        <v>742166.777188345</v>
+        <v>1624153.615857771</v>
       </c>
       <c r="I42">
         <v>40</v>
@@ -1621,25 +1621,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>328.0002243302051</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>24.91371917840791</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>488340.2037952563</v>
+        <v>36790.3733262086</v>
       </c>
       <c r="E43">
-        <v>4691198.585808988</v>
+        <v>2113644.301339033</v>
       </c>
       <c r="F43">
-        <v>1172799.646452247</v>
+        <v>528411.0753347583</v>
       </c>
       <c r="G43">
-        <v>6352338.436056491</v>
+        <v>2678845.75</v>
       </c>
       <c r="H43">
-        <v>752928.610703806</v>
+        <v>1627506.112031056</v>
       </c>
       <c r="I43">
         <v>41</v>
@@ -1650,25 +1650,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>307.8253067743839</v>
+        <v>0</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>425528.9995412677</v>
+        <v>32049.3450771534</v>
       </c>
       <c r="E44">
-        <v>4741483.620121566</v>
+        <v>2117437.123938277</v>
       </c>
       <c r="F44">
-        <v>1185370.905030391</v>
+        <v>529359.2809845693</v>
       </c>
       <c r="G44">
-        <v>6352363.349775669</v>
+        <v>2678845.75</v>
       </c>
       <c r="H44">
-        <v>762319.7701939605</v>
+        <v>1630426.585432474</v>
       </c>
       <c r="I44">
         <v>42</v>
@@ -1679,25 +1679,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>291.3297980070408</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>16.49550876734314</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>370692.7794863827</v>
+        <v>27919.27417444095</v>
       </c>
       <c r="E45">
-        <v>4785352.596165474</v>
+        <v>2120741.180660447</v>
       </c>
       <c r="F45">
-        <v>1196338.149041368</v>
+        <v>530185.2951651118</v>
       </c>
       <c r="G45">
-        <v>6352383.524693226</v>
+        <v>2678845.75</v>
       </c>
       <c r="H45">
-        <v>770491.0882697544</v>
+        <v>1632970.709108544</v>
       </c>
       <c r="I45">
         <v>43</v>
@@ -1708,25 +1708,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>277.7277472687484</v>
+        <v>0</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46">
-        <v>323002.8979296609</v>
+        <v>24321.42898867745</v>
       </c>
       <c r="E46">
-        <v>4823528.579458456</v>
+        <v>2123619.456809058</v>
       </c>
       <c r="F46">
-        <v>1205882.144864614</v>
+        <v>530904.8642022645</v>
       </c>
       <c r="G46">
-        <v>6352400.020201992</v>
+        <v>2678845.75</v>
       </c>
       <c r="H46">
-        <v>777619.7968768895</v>
+        <v>1635186.981742975</v>
       </c>
       <c r="I46">
         <v>44</v>
@@ -1737,25 +1737,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>266.4308827102923</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>11.29686455845612</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>281378.8064850573</v>
+        <v>21187.22372062254</v>
       </c>
       <c r="E47">
-        <v>4856827.852614139</v>
+        <v>2126126.821023502</v>
       </c>
       <c r="F47">
-        <v>1214206.963153535</v>
+        <v>531531.7052558755</v>
       </c>
       <c r="G47">
-        <v>6352413.622252731</v>
+        <v>2678845.75</v>
       </c>
       <c r="H47">
-        <v>783823.3941619991</v>
+        <v>1637117.652188096</v>
       </c>
       <c r="I47">
         <v>45</v>
@@ -1766,25 +1766,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>256.9886500856697</v>
+        <v>0</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48">
-        <v>245173.7499356657</v>
+        <v>18456.91094864079</v>
       </c>
       <c r="E48">
-        <v>4885808.489131398</v>
+        <v>2128311.071241087</v>
       </c>
       <c r="F48">
-        <v>1221452.12228285</v>
+        <v>532077.7678102718</v>
       </c>
       <c r="G48">
-        <v>6352424.91911729</v>
+        <v>2678845.75</v>
       </c>
       <c r="H48">
-        <v>789234.5260497977</v>
+        <v>1638799.524855637</v>
       </c>
       <c r="I48">
         <v>46</v>
@@ -1795,25 +1795,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>249.0541394902625</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>7.934510595407194</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>213579.1894764563</v>
+        <v>16078.44266233325</v>
       </c>
       <c r="E49">
-        <v>4911084.137498766</v>
+        <v>2130213.845870133</v>
       </c>
       <c r="F49">
-        <v>1227771.034374692</v>
+        <v>532553.4614675334</v>
       </c>
       <c r="G49">
-        <v>6352434.361349914</v>
+        <v>2678845.75</v>
       </c>
       <c r="H49">
-        <v>793943.8794838523</v>
+        <v>1640264.661320003</v>
       </c>
       <c r="I49">
         <v>47</v>
@@ -1824,25 +1824,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>242.3545705873175</v>
+        <v>0</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50">
-        <v>186095.0326961245</v>
+        <v>14006.47807020901</v>
       </c>
       <c r="E50">
-        <v>4933083.17018663</v>
+        <v>2131871.417543833</v>
       </c>
       <c r="F50">
-        <v>1233270.792546658</v>
+        <v>532967.8543859583</v>
       </c>
       <c r="G50">
-        <v>6352442.295860509</v>
+        <v>2678845.75</v>
       </c>
       <c r="H50">
-        <v>798051.1723435496</v>
+        <v>1641540.991508751</v>
       </c>
       <c r="I50">
         <v>48</v>
@@ -1853,25 +1853,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>236.6749643539687</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>5.679606233348904</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>162113.7102127057</v>
+        <v>12201.51926721346</v>
       </c>
       <c r="E51">
-        <v>4952268.228173366</v>
+        <v>2133315.384586229</v>
       </c>
       <c r="F51">
-        <v>1238067.057043341</v>
+        <v>533328.8461465572</v>
       </c>
       <c r="G51">
-        <v>6352448.995429412</v>
+        <v>2678845.75</v>
       </c>
       <c r="H51">
-        <v>801626.0151553275</v>
+        <v>1642652.846131397</v>
       </c>
       <c r="I51">
         <v>49</v>
@@ -1882,25 +1882,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>231.8425633336233</v>
+        <v>0</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>141250.7651570821</v>
+        <v>10629.15828532473</v>
       </c>
       <c r="E52">
-        <v>4968966.993823667</v>
+        <v>2134573.27337174</v>
       </c>
       <c r="F52">
-        <v>1242241.748455917</v>
+        <v>533643.3183429351</v>
       </c>
       <c r="G52">
-        <v>6352454.675035645</v>
+        <v>2678845.75</v>
       </c>
       <c r="H52">
-        <v>804743.587078172</v>
+        <v>1643621.42049624</v>
       </c>
       <c r="I52">
         <v>50</v>
